--- a/AI_logic_simulator.xlsx
+++ b/AI_logic_simulator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>COLUMN</t>
   </si>
@@ -170,13 +170,88 @@
   </si>
   <si>
     <t>r1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>Score col 1</t>
+  </si>
+  <si>
+    <t>COL SCORE</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>left diag</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>right diag</t>
+  </si>
+  <si>
+    <t>Left diag SCORE</t>
+  </si>
+  <si>
+    <t>Right diag SCORE</t>
+  </si>
+  <si>
+    <t>left diag main</t>
+  </si>
+  <si>
+    <t>left diag r2</t>
+  </si>
+  <si>
+    <t>left diag r3</t>
+  </si>
+  <si>
+    <t>Flipboard</t>
+  </si>
+  <si>
+    <t>right diag c4</t>
+  </si>
+  <si>
+    <t>right diag main</t>
+  </si>
+  <si>
+    <t>right diag r2</t>
+  </si>
+  <si>
+    <t>right diag r3</t>
+  </si>
+  <si>
+    <t>right diag c6</t>
+  </si>
+  <si>
+    <t>right diag c5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,8 +282,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +304,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -231,7 +326,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="157">
+  <cellStyleXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -389,8 +484,250 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -403,8 +740,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="157">
+  <cellStyles count="399">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -483,6 +845,127 @@
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -561,6 +1044,127 @@
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -890,26 +1494,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V35"/>
+  <dimension ref="B1:AO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="10" width="3.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.1640625" customWidth="1"/>
+    <col min="11" max="13" width="4.5" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="4.5" style="5" customWidth="1"/>
+    <col min="25" max="32" width="4" style="5" customWidth="1"/>
+    <col min="33" max="33" width="4" style="11" customWidth="1"/>
+    <col min="34" max="40" width="4" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:41">
       <c r="M1" s="3"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:41">
       <c r="D10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:41">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -946,11 +1559,84 @@
       <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="P11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" t="str">
+        <f>CONCATENATE(P11," ",V11)</f>
+        <v>left diag c4</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="5">
+        <f t="shared" ref="AB11:AB16" si="0">G12</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <f>I14</f>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="5">
+        <f>J15</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="13" t="str">
+        <f t="shared" ref="AK11:AK14" si="1">IF(AND(AB11=0,AB12=0),IF(AND(AB11=0,AB12=0,AB13=0),"X","P"),AB11)</f>
+        <v>P</v>
+      </c>
+      <c r="AL11" s="13">
+        <f t="shared" ref="AL11:AL13" si="2">IF(AND(AC11=0,AC12=0),IF(AND(AC11=0,AC12=0,AC13=0),"X","P"),AC11)</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="13">
+        <f t="shared" ref="AM11:AM12" si="3">IF(AND(AD11=0,AD12=0),IF(AND(AD11=0,AD12=0,AD13=0),"X","P"),AD11)</f>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="13" t="str">
+        <f t="shared" ref="AN11" si="4">IF(AND(AE11=0,AE12=0),IF(AND(AE11=0,AE12=0,AE13=0),"X","P"),AE11)</f>
+        <v>P</v>
+      </c>
+      <c r="AO11" t="str">
+        <f>CONCATENATE(AH11,AI11,AJ11,AK11,AL11,AM11,AN11)</f>
+        <v>P01P</v>
+      </c>
     </row>
-    <row r="12" spans="2:14" ht="21" customHeight="1">
+    <row r="12" spans="2:41" ht="21" customHeight="1">
       <c r="C12">
         <v>1</v>
       </c>
@@ -988,11 +1674,97 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <f>SUM(K12:M12)</f>
-        <v>0</v>
+        <f t="shared" ref="N12:N17" si="5">SUM(K12:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>MAX(Sheet2!T3:T17)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <f>MAX(Sheet2!U3:U17)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <f>MAX(Sheet2!V3:V17)</f>
+        <v>6.5</v>
+      </c>
+      <c r="T12" s="5">
+        <f>MAX(Sheet2!W3:W17)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <f>MAX(Sheet2!X3:X17)</f>
+        <v>13</v>
+      </c>
+      <c r="V12" s="5">
+        <f>MAX(Sheet2!Y3:Y17)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X12" t="str">
+        <f>CONCATENATE(P11," ",U11)</f>
+        <v>left diag c3</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="5">
+        <f>F12</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <f>H14</f>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="5">
+        <f>I15</f>
+        <v>1</v>
+      </c>
+      <c r="AE12" s="5">
+        <f>J16</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="13" t="str">
+        <f>IF(AND(AA12=0,AA13=0),IF(AND(AA12=0,AA13=0,AA14=0),"X","P"),AA12)</f>
+        <v>X</v>
+      </c>
+      <c r="AK12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AM12" s="13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AN12" s="13">
+        <f>IF(AND(AE12=0,AE13=0),"P",AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" t="str">
+        <f t="shared" ref="AO12:AO16" si="6">CONCATENATE(AH12,AI12,AJ12,AK12,AL12,AM12,AN12)</f>
+        <v>X0110</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="21" customHeight="1">
+    <row r="13" spans="2:41" ht="21" customHeight="1">
       <c r="C13">
         <v>2</v>
       </c>
@@ -1030,11 +1802,101 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <f>SUM(K13:M13)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="5">
+        <f>MAX(Sheet2!T20:T27)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <f>MAX(Sheet2!U20:U27)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <f>MAX(Sheet2!V20:V27)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <f>MAX(Sheet2!W20:W27)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <f>MAX(Sheet2!X20:X27)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <f>MAX(Sheet2!Y20:Y27)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" t="str">
+        <f>CONCATENATE(P11," ",T11)</f>
+        <v>left diag c2</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="5">
+        <f>E12</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
+        <f t="shared" ref="AA13:AA16" si="7">F13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="AC13" s="5" t="str">
+        <f>H15</f>
+        <v>X</v>
+      </c>
+      <c r="AD13" s="5" t="str">
+        <f>I16</f>
+        <v>X</v>
+      </c>
+      <c r="AE13" s="6" t="str">
+        <f>J17</f>
+        <v>X</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="13" t="str">
+        <f>IF(AND(Z13=0,Z14=0),IF(AND(Z13=0,Z14=0,Z15=0),"X","P"),Z13)</f>
+        <v>X</v>
+      </c>
+      <c r="AJ13" s="13" t="str">
+        <f t="shared" ref="AJ13:AJ14" si="8">IF(AND(AA13=0,AA14=0),IF(AND(AA13=0,AA14=0,AA15=0),"X","P"),AA13)</f>
+        <v>X</v>
+      </c>
+      <c r="AK13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="AL13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="AM13" s="13" t="str">
+        <f>IF(AND(AD13=0,AD14=0),"P",AD13)</f>
+        <v>X</v>
+      </c>
+      <c r="AN13" s="13" t="str">
+        <f>AE13</f>
+        <v>X</v>
+      </c>
+      <c r="AO13" t="str">
+        <f t="shared" si="6"/>
+        <v>XXXXXX</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="21" customHeight="1">
+    <row r="14" spans="2:41" ht="21" customHeight="1">
       <c r="C14">
         <v>3</v>
       </c>
@@ -1047,14 +1909,14 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1072,11 +1934,100 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f>SUM(K14:M14)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="5">
+        <f>MAX(Sheet2!T30:T38)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <f>MAX(Sheet2!U30:U38)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <f>MAX(Sheet2!V30:V38)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <f>MAX(Sheet2!W30:W38)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <f>MAX(Sheet2!X30:X38)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <f>MAX(Sheet2!Y30:Y38)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="5">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" ref="Z14:Z16" si="9">E13</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="5">
+        <f>H16</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="5">
+        <f>I17</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="13" t="str">
+        <f>IF(AND(Y14=0,Y15=0),IF(AND(Y14=0,Y15=0,Y16=0),"X","P"),Y14)</f>
+        <v>X</v>
+      </c>
+      <c r="AI14" s="13" t="str">
+        <f t="shared" ref="AI14:AI16" si="10">IF(AND(Z14=0,Z15=0),IF(AND(Z14=0,Z15=0,Z16=0),"X","P"),Z14)</f>
+        <v>X</v>
+      </c>
+      <c r="AJ14" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v>P</v>
+      </c>
+      <c r="AK14" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="13">
+        <f>IF(AND(AC14=0,AC15=0),"P",AC14)</f>
+        <v>1</v>
+      </c>
+      <c r="AM14" s="13">
+        <f>AD14</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="9"/>
+      <c r="AO14" t="str">
+        <f>CONCATENATE(AH14,AI14,AJ14,AK14,AL14,AM14,AN14)</f>
+        <v>XXP110</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="21" customHeight="1">
+    <row r="15" spans="2:41" ht="21" customHeight="1">
       <c r="C15">
         <v>4</v>
       </c>
@@ -1090,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1114,31 +2065,113 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f>SUM(K15:M15)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>SUM(Q12:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" ref="R15:V15" si="11">SUM(R12:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="11"/>
+        <v>6.5</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" ref="Y15:Y19" si="12">D13</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="AC15" s="5">
+        <f>H17</f>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="13" t="str">
+        <f t="shared" ref="AH15:AH16" si="13">IF(AND(Y15=0,Y16=0),IF(AND(Y15=0,Y16=0,Y17=0),"X","P"),Y15)</f>
+        <v>X</v>
+      </c>
+      <c r="AI15" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="AJ15" s="13">
+        <f>IF(AND(AA15=0,AA16=0),IF(AND(AA15=0,AA16=0,AA17=0),"X","P"),AA15)</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13" t="str">
+        <f>IF(AND(AB15=0,AB16=0),"P",AB15)</f>
+        <v>X</v>
+      </c>
+      <c r="AL15" s="13">
+        <f>AC15</f>
+        <v>1</v>
+      </c>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" t="str">
+        <f t="shared" si="6"/>
+        <v>XX0X1</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="21" customHeight="1">
+    <row r="16" spans="2:41" ht="21" customHeight="1">
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1156,11 +2189,60 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f>SUM(K16:M16)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE16" s="9"/>
+      <c r="AH16" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v>P</v>
+      </c>
+      <c r="AI16" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+      <c r="AJ16" s="13">
+        <f>IF(AND(AA16=0,AA17=0),"P",AA16)</f>
+        <v>1</v>
+      </c>
+      <c r="AK16" s="13">
+        <f>AB16</f>
+        <v>1</v>
+      </c>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" t="str">
+        <f t="shared" si="6"/>
+        <v>PX11</v>
       </c>
     </row>
-    <row r="17" spans="3:22" ht="21" customHeight="1">
+    <row r="17" spans="3:41" ht="21" customHeight="1">
       <c r="C17">
         <v>6</v>
       </c>
@@ -1171,58 +2253,985 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="K17">
         <f>MAX(Sheet2!D3:D17)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L17">
         <f>MAX(Sheet2!D20:D27)</f>
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="M17">
         <f>MAX(Sheet2!D30:D38)</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>SUM(K17:M17)</f>
+        <f t="shared" si="5"/>
+        <v>415</v>
+      </c>
+      <c r="Y17" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <f>F17</f>
+        <v>1</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:41">
+      <c r="Y18" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="9">
+        <f>E17</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9"/>
+    </row>
+    <row r="19" spans="3:41">
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <f>MAX(Sheet2!K3:K17)</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>MAX(Sheet2!L3:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>MAX(Sheet2!M3:M17)</f>
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <f>MAX(Sheet2!N3:N17)</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>MAX(Sheet2!O3:O17)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>MAX(Sheet2!P3:P17)</f>
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <f>MAX(Sheet2!Q3:Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>X</v>
+      </c>
+      <c r="Z19" s="9"/>
+    </row>
+    <row r="20" spans="3:41">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f>MAX(Sheet2!K20:K27)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>MAX(Sheet2!L20:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>MAX(Sheet2!M20:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>MAX(Sheet2!N20:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>MAX(Sheet2!O20:O27)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>MAX(Sheet2!P20:P27)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>MAX(Sheet2!Q20:Q27)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9"/>
+    </row>
+    <row r="21" spans="3:41">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <f>MAX(Sheet2!K30:K38)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>MAX(Sheet2!L30:L38)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>MAX(Sheet2!M30:M38)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>MAX(Sheet2!N30:N38)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>MAX(Sheet2!O30:O38)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>MAX(Sheet2!P30:P38)</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>MAX(Sheet2!Q30:Q38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:41">
+      <c r="C22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D19:D21)</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:J22" si="14">SUM(E19:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22">
+        <f>SUM(D22:J22,N12:N17,Q15:V15,Q33:V33)</f>
+        <v>863.16666666666674</v>
+      </c>
+    </row>
+    <row r="29" spans="3:41">
+      <c r="P29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="3:41">
+      <c r="P30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q30" s="5">
+        <f>MAX(Sheet2!AB3:AB17)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
+        <f>MAX(Sheet2!AC3:AC17)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <f>MAX(Sheet2!AD3:AD17)</f>
+        <v>15</v>
+      </c>
+      <c r="T30" s="5">
+        <f>MAX(Sheet2!AE3:AE17)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="5">
+        <f>MAX(Sheet2!AF3:AF17)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="5">
+        <f>MAX(Sheet2!AG3:AG17)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="5">
+        <f t="shared" ref="AB30:AB35" si="15">G12</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5">
+        <f>F13</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5">
+        <f>E14</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="5">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="12"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="5" t="str">
+        <f t="shared" ref="AK30:AN33" si="16">IF(AND(AB30=0,AB31=0),IF(AND(AB30=0,AB31=0,AB32=0),"X","P"),AB30)</f>
+        <v>P</v>
+      </c>
+      <c r="AL30" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>X</v>
+      </c>
+      <c r="AM30" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>X</v>
+      </c>
+      <c r="AN30" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO30" t="str">
+        <f>CONCATENATE(AH30,AI30,AJ30,AK30,AL30,AM30,AN30)</f>
+        <v>PXX0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:41">
+      <c r="P31" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="5">
+        <f>MAX(Sheet2!AB20:AB27)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
+        <f>MAX(Sheet2!AC20:AC27)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <f>MAX(Sheet2!AD20:AD27)</f>
+        <v>400</v>
+      </c>
+      <c r="T31" s="5">
+        <f>MAX(Sheet2!AE20:AE27)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="5">
+        <f>MAX(Sheet2!AF20:AF27)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="5">
+        <f>MAX(Sheet2!AG20:AG27)</f>
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="5">
+        <f t="shared" ref="AA31:AA36" si="17">H12</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="5">
+        <f>F14</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="5">
+        <f>D16</f>
+        <v>1</v>
+      </c>
+      <c r="AF31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="5" t="str">
+        <f>IF(AND(AA31=0,AA32=0),IF(AND(AA31=0,AA32=0,AA33=0),"X","P"),AA31)</f>
+        <v>P</v>
+      </c>
+      <c r="AK31" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="5" t="str">
+        <f t="shared" ref="AL31" si="18">IF(AND(AC31=0,AC32=0),IF(AND(AC31=0,AC32=0,AC33=0),"X","P"),AC31)</f>
+        <v>P</v>
+      </c>
+      <c r="AM31" s="5" t="str">
+        <f t="shared" ref="AM31" si="19">IF(AND(AD31=0,AD32=0),IF(AND(AD31=0,AD32=0,AD33=0),"X","P"),AD31)</f>
+        <v>X</v>
+      </c>
+      <c r="AN31" s="5">
+        <f>IF(AND(AE31=0,AE32=0),"P",AE31)</f>
+        <v>1</v>
+      </c>
+      <c r="AO31" t="str">
+        <f t="shared" ref="AO31:AO32" si="20">CONCATENATE(AH31,AI31,AJ31,AK31,AL31,AM31,AN31)</f>
+        <v>P0PX1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:41">
+      <c r="P32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="5">
+        <f>MAX(Sheet2!AB30:AB38)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <f>MAX(Sheet2!AC30:AC38)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <f>MAX(Sheet2!AD30:AD38)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
+        <f>MAX(Sheet2!AE30:AE38)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="5">
+        <f>MAX(Sheet2!AF30:AF38)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
+        <f>MAX(Sheet2!AG30:AG38)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="5">
+        <f t="shared" ref="Z32:Z37" si="21">I12</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="AC32" s="5">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="5">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="5" t="str">
+        <f>D17</f>
+        <v>X</v>
+      </c>
+      <c r="AF32" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="5" t="str">
+        <f>IF(AND(Z32=0,Z33=0),IF(AND(Z32=0,Z33=0,Z34=0),"X","P"),Z32)</f>
+        <v>P</v>
+      </c>
+      <c r="AJ32" s="5">
+        <f t="shared" ref="AJ32:AJ33" si="22">IF(AND(AA32=0,AA33=0),IF(AND(AA32=0,AA33=0,AA34=0),"X","P"),AA32)</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>X</v>
+      </c>
+      <c r="AL32" s="5">
+        <f t="shared" ref="AL32" si="23">IF(AND(AC32=0,AC33=0),IF(AND(AC32=0,AC33=0,AC34=0),"X","P"),AC32)</f>
+        <v>0</v>
+      </c>
+      <c r="AM32" s="5" t="str">
+        <f>IF(AND(AD32=0,AD33=0),"P",AD32)</f>
+        <v>P</v>
+      </c>
+      <c r="AN32" s="5" t="str">
+        <f>AE32</f>
+        <v>X</v>
+      </c>
+      <c r="AO32" t="str">
+        <f t="shared" si="20"/>
+        <v>P0X0PX</v>
+      </c>
+    </row>
+    <row r="33" spans="16:41">
+      <c r="P33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q33" s="5">
+        <f>SUM(Q30:Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" ref="R33:V33" si="24">SUM(R30:R32)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <f t="shared" si="24"/>
+        <v>415</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y33" s="5">
+        <f t="shared" ref="Y33:Y38" si="25">J12</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="5">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB33" s="5">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC33" s="5">
+        <f>F16</f>
+        <v>1</v>
+      </c>
+      <c r="AD33" s="5">
+        <f>E17</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="5" t="str">
+        <f>IF(AND(Y33=0,Y34=0),IF(AND(Y33=0,Y34=0,Y35=0),"X","P"),Y33)</f>
+        <v>X</v>
+      </c>
+      <c r="AI33" s="5">
+        <f t="shared" ref="AI33:AI35" si="26">IF(AND(Z33=0,Z34=0),IF(AND(Z33=0,Z34=0,Z35=0),"X","P"),Z33)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="5">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AK33" s="5">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AL33" s="5">
+        <f>IF(AND(AC33=0,AC34=0),"P",AC33)</f>
+        <v>1</v>
+      </c>
+      <c r="AM33" s="5">
+        <f>AD33</f>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="9"/>
+      <c r="AO33" t="str">
+        <f>CONCATENATE(AH33,AI33,AJ33,AK33,AL33,AM33,AN33)</f>
+        <v>X01110</v>
+      </c>
+    </row>
+    <row r="34" spans="16:41">
+      <c r="X34" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y34" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="5">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AA34" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>X</v>
+      </c>
+      <c r="AB34" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="AC34" s="5">
+        <f>F17</f>
+        <v>1</v>
+      </c>
+      <c r="AD34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH34" s="5" t="str">
+        <f t="shared" ref="AH34:AH35" si="27">IF(AND(Y34=0,Y35=0),IF(AND(Y34=0,Y35=0,Y36=0),"X","P"),Y34)</f>
+        <v>X</v>
+      </c>
+      <c r="AI34" s="5">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="5" t="str">
+        <f>IF(AND(AA34=0,AA35=0),IF(AND(AA34=0,AA35=0,AA36=0),"X","P"),AA34)</f>
+        <v>X</v>
+      </c>
+      <c r="AK34" s="5" t="str">
+        <f>IF(AND(AB34=0,AB35=0),"P",AB34)</f>
+        <v>X</v>
+      </c>
+      <c r="AL34" s="5">
+        <f>AC34</f>
+        <v>1</v>
+      </c>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" t="str">
+        <f t="shared" ref="AO34:AO35" si="28">CONCATENATE(AH34,AI34,AJ34,AK34,AL34,AM34,AN34)</f>
+        <v>X1XX1</v>
+      </c>
+    </row>
+    <row r="35" spans="16:41">
+      <c r="X35" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y35" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="5">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="5">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB35" s="5">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE35" s="9"/>
+      <c r="AH35" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>X</v>
+      </c>
+      <c r="AI35" s="5">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="5">
+        <f>IF(AND(AA35=0,AA36=0),"P",AA35)</f>
+        <v>1</v>
+      </c>
+      <c r="AK35" s="5">
+        <f>AB35</f>
+        <v>1</v>
+      </c>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" t="str">
+        <f t="shared" si="28"/>
+        <v>X111</v>
+      </c>
+    </row>
+    <row r="36" spans="16:41">
+      <c r="Y36" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>X</v>
+      </c>
+      <c r="AA36" s="9">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AB36" s="9"/>
+    </row>
+    <row r="37" spans="16:41">
+      <c r="Y37" s="9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="9"/>
+    </row>
+    <row r="38" spans="16:41">
+      <c r="Y38" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>X</v>
+      </c>
+      <c r="Z38" s="9"/>
+    </row>
+    <row r="39" spans="16:41">
+      <c r="P39" s="1"/>
+      <c r="V39" s="6"/>
+      <c r="Y39" s="9"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="16:41">
+      <c r="AG40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ40" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK40" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL40" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM40" s="5">
+        <v>6</v>
+      </c>
+      <c r="AN40" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:22">
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
+    <row r="41" spans="16:41">
+      <c r="AG41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="5" t="str">
+        <f t="shared" ref="AH41:AN44" si="29">IF(AND(D12=0,D13=0),IF(AND(D12=0,D13=0,D14=0),"X","P"),D12)</f>
+        <v>X</v>
+      </c>
+      <c r="AI41" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AJ41" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AK41" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AL41" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AM41" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AN41" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AO41" t="str">
+        <f>CONCATENATE(AH41,AI41,AJ41,AK41,AL41,AM41,AN41)</f>
+        <v>XXXPPPX</v>
+      </c>
     </row>
-    <row r="30" spans="3:22">
-      <c r="P30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="3"/>
+    <row r="42" spans="16:41">
+      <c r="AG42" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH42" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AI42" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AJ42" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AK42" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AO42" t="str">
+        <f t="shared" ref="AO42:AO46" si="30">CONCATENATE(AH42,AI42,AJ42,AK42,AL42,AM42,AN42)</f>
+        <v>XXX000X</v>
+      </c>
     </row>
-    <row r="34" spans="21:22">
-      <c r="U34" s="5"/>
-      <c r="V34" s="3"/>
+    <row r="43" spans="16:41">
+      <c r="AG43" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH43" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AI43" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AJ43" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AK43" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AL43" s="5">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AM43" s="5">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AN43" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AO43" t="str">
+        <f t="shared" si="30"/>
+        <v>PXPX11X</v>
+      </c>
     </row>
-    <row r="35" spans="21:22">
-      <c r="U35" s="5"/>
-      <c r="V35" s="3"/>
+    <row r="44" spans="16:41">
+      <c r="AG44" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH44" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AJ44" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="5">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AL44" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>X</v>
+      </c>
+      <c r="AM44" s="5">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AN44" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AO44" t="str">
+        <f>CONCATENATE(AH44,AI44,AJ44,AK44,AL44,AM44,AN44)</f>
+        <v>0X01X1P</v>
+      </c>
+    </row>
+    <row r="45" spans="16:41">
+      <c r="AG45" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH45" s="5">
+        <f t="shared" ref="AH45:AN45" si="31">IF(AND(D16=0,D17=0),"P",D16)</f>
+        <v>1</v>
+      </c>
+      <c r="AI45" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>P</v>
+      </c>
+      <c r="AJ45" s="5">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AK45" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>X</v>
+      </c>
+      <c r="AL45" s="5">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AM45" s="5" t="str">
+        <f t="shared" si="31"/>
+        <v>X</v>
+      </c>
+      <c r="AN45" s="5">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AO45" t="str">
+        <f t="shared" si="30"/>
+        <v>1P1X1X0</v>
+      </c>
+    </row>
+    <row r="46" spans="16:41">
+      <c r="AG46" s="5">
+        <v>6</v>
+      </c>
+      <c r="AH46" s="5" t="str">
+        <f t="shared" ref="AH46:AN46" si="32">D17</f>
+        <v>X</v>
+      </c>
+      <c r="AI46" s="5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="5">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AK46" s="5">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AL46" s="5">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AM46" s="5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AN46" s="5" t="str">
+        <f t="shared" si="32"/>
+        <v>X</v>
+      </c>
+      <c r="AO46" t="str">
+        <f t="shared" si="30"/>
+        <v>X01110X</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="U34:U35"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1235,41 +3244,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="17" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="3.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:33">
       <c r="D1" t="str">
-        <f>CONCATENATE(Sheet1!$D17,Sheet1!$E17,Sheet1!$F17,Sheet1!$G17,Sheet1!$H17,Sheet1!$I17,Sheet1!$J17)</f>
-        <v>X001010</v>
+        <f>Sheet1!AO46</f>
+        <v>X01110X</v>
       </c>
       <c r="E1" t="str">
-        <f>CONCATENATE(Sheet1!$D16,Sheet1!$E16,Sheet1!$F16,Sheet1!$G16,Sheet1!$H16,Sheet1!$I16,Sheet1!$J16)</f>
-        <v>0000000</v>
+        <f>Sheet1!AO45</f>
+        <v>1P1X1X0</v>
       </c>
       <c r="F1" t="str">
-        <f>CONCATENATE(Sheet1!$D15,Sheet1!$E15,Sheet1!$F15,Sheet1!$G15,Sheet1!$H15,Sheet1!$I15,Sheet1!$J15)</f>
-        <v>0000000</v>
+        <f>Sheet1!AO44</f>
+        <v>0X01X1P</v>
       </c>
       <c r="G1" t="str">
-        <f>CONCATENATE(Sheet1!$D14,Sheet1!$E14,Sheet1!$F14,Sheet1!$G14,Sheet1!$H14,Sheet1!$I14,Sheet1!$J14)</f>
-        <v>0000000</v>
+        <f>Sheet1!AO43</f>
+        <v>PXPX11X</v>
       </c>
       <c r="H1" t="str">
-        <f>CONCATENATE(Sheet1!$D13,Sheet1!$E13,Sheet1!$F13,Sheet1!$G13,Sheet1!$H13,Sheet1!$I13,Sheet1!$J13)</f>
-        <v>0000000</v>
+        <f>Sheet1!AO42</f>
+        <v>XXX000X</v>
       </c>
       <c r="I1" t="str">
-        <f>CONCATENATE(Sheet1!$D12,Sheet1!$E12,Sheet1!$F12,Sheet1!$G12,Sheet1!$H12,Sheet1!$I12,Sheet1!$J12)</f>
-        <v>0000000</v>
+        <f>Sheet1!AO41</f>
+        <v>XXXPPPX</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE(Sheet1!D12,Sheet1!D13,Sheet1!D14,Sheet1!D15,Sheet1!D16,Sheet1!D17)</f>
+        <v>00001X</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE(Sheet1!E12,Sheet1!E13,Sheet1!E14,Sheet1!E15,Sheet1!E16,Sheet1!E17)</f>
+        <v>000000</v>
+      </c>
+      <c r="M1" t="str">
+        <f>CONCATENATE(Sheet1!F12,Sheet1!F13,Sheet1!F14,Sheet1!F15,Sheet1!F16,Sheet1!F17)</f>
+        <v>000011</v>
+      </c>
+      <c r="N1" t="str">
+        <f>CONCATENATE(Sheet1!G12,Sheet1!G13,Sheet1!G14,Sheet1!G15,Sheet1!G16,Sheet1!G17)</f>
+        <v>00X1X1</v>
+      </c>
+      <c r="O1" t="str">
+        <f>CONCATENATE(Sheet1!H12,Sheet1!H13,Sheet1!H14,Sheet1!H15,Sheet1!H16,Sheet1!H17)</f>
+        <v>001X11</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE(Sheet1!I12,Sheet1!I13,Sheet1!I14,Sheet1!I15,Sheet1!I16,Sheet1!I17)</f>
+        <v>0011X0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>CONCATENATE(Sheet1!J12,Sheet1!J13,Sheet1!J14,Sheet1!J15,Sheet1!J16,Sheet1!J17)</f>
+        <v>00000X</v>
+      </c>
+      <c r="T1" t="str">
+        <f>Sheet1!AO16</f>
+        <v>PX11</v>
+      </c>
+      <c r="U1" t="str">
+        <f>Sheet1!AO15</f>
+        <v>XX0X1</v>
+      </c>
+      <c r="V1" t="str">
+        <f>Sheet1!AO14</f>
+        <v>XXP110</v>
+      </c>
+      <c r="W1" t="str">
+        <f>Sheet1!AO13</f>
+        <v>XXXXXX</v>
+      </c>
+      <c r="X1" t="str">
+        <f>Sheet1!AO12</f>
+        <v>X0110</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>Sheet1!AO11</f>
+        <v>P01P</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>Sheet1!AO35</f>
+        <v>X111</v>
+      </c>
+      <c r="AC1" t="str">
+        <f>Sheet1!AO34</f>
+        <v>X1XX1</v>
+      </c>
+      <c r="AD1" t="str">
+        <f>Sheet1!AO33</f>
+        <v>X01110</v>
+      </c>
+      <c r="AE1" t="str">
+        <f>Sheet1!AO32</f>
+        <v>P0X0PX</v>
+      </c>
+      <c r="AF1" t="str">
+        <f>Sheet1!AO31</f>
+        <v>P0PX1</v>
+      </c>
+      <c r="AG1" t="str">
+        <f>Sheet1!AO30</f>
+        <v>PXX0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1297,9 +3394,72 @@
       <c r="I2" t="s">
         <v>49</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5">
+    <row r="3" spans="1:33">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1313,11 +3473,29 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:I3" si="0">IF(ISNUMBER(SEARCH(C3,E$1,1)),D3,0)</f>
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,E$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(E$1,"P",0),1)),(LEN(E$1)-LEN(SUBSTITUTE(E$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(E$1)-LEN(SUBSTITUTE(E$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,E$1,1)),
+ $C3,
+ 0))</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:I3" si="0">IF(
+ IF(
+  ISNUMBER(SEARCH($B3,F$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(F$1,"P",0),1)),(LEN(F$1)-LEN(SUBSTITUTE(F$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(F$1)-LEN(SUBSTITUTE(F$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,F$1,1)),
+ $C3,
+ 0))</f>
         <v>0</v>
       </c>
       <c r="G3">
@@ -1332,9 +3510,197 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J3" t="str">
+        <f>"['"&amp;B3&amp;"',"&amp;C3&amp;"],"</f>
+        <v>['0001',1],</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="E3:Q3" si="1">IF(ISNUMBER(SEARCH($B3,K$1,1)),$C3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,T$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(T$1,"P",0),1)),(LEN(T$1)-LEN(SUBSTITUTE(T$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(T$1)-LEN(SUBSTITUTE(T$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,T$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,U$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(U$1,"P",0),1)),(LEN(U$1)-LEN(SUBSTITUTE(U$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(U$1)-LEN(SUBSTITUTE(U$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,U$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,V$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(V$1,"P",0),1)),(LEN(V$1)-LEN(SUBSTITUTE(V$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(V$1)-LEN(SUBSTITUTE(V$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,V$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,W$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(W$1,"P",0),1)),(LEN(W$1)-LEN(SUBSTITUTE(W$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(W$1)-LEN(SUBSTITUTE(W$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,W$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,X$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(X$1,"P",0),1)),(LEN(X$1)-LEN(SUBSTITUTE(X$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(X$1)-LEN(SUBSTITUTE(X$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,X$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,Y$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(Y$1,"P",0),1)),(LEN(Y$1)-LEN(SUBSTITUTE(Y$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(Y$1)-LEN(SUBSTITUTE(Y$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,Y$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,AB$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AB$1,"P",0),1)),(LEN(AB$1)-LEN(SUBSTITUTE(AB$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(AB$1)-LEN(SUBSTITUTE(AB$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,AB$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,AC$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AC$1,"P",0),1)),(LEN(AC$1)-LEN(SUBSTITUTE(AC$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(AC$1)-LEN(SUBSTITUTE(AC$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,AC$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,AD$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AD$1,"P",0),1)),(LEN(AD$1)-LEN(SUBSTITUTE(AD$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(AD$1)-LEN(SUBSTITUTE(AD$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,AD$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,AE$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AE$1,"P",0),1)),(LEN(AE$1)-LEN(SUBSTITUTE(AE$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(AE$1)-LEN(SUBSTITUTE(AE$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,AE$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,AF$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AF$1,"P",0),1)),(LEN(AF$1)-LEN(SUBSTITUTE(AF$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(AF$1)-LEN(SUBSTITUTE(AF$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,AF$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B3,AG$1,1)),$C3,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AG$1,"P",0),1)),(LEN(AG$1)-LEN(SUBSTITUTE(AG$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
+   $C3/(LEN(AG$1)-LEN(SUBSTITUTE(AG$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B3,AG$1,1)),
+ $C3,
+ 0))</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:33">
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1342,32 +3708,139 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D17" si="1">IF(ISNUMBER(SEARCH($B4,D$1,1)),$C4,0)</f>
+        <f t="shared" ref="D4:D17" si="2">IF(ISNUMBER(SEARCH($B4,D$1,1)),$C4,0)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:I4" si="2">IF(ISNUMBER(SEARCH(C4,E$1,1)),D4,0)</f>
+        <f t="shared" ref="E4:I17" si="3">IF(
+ IF(
+  ISNUMBER(SEARCH($B4,E$1,1)),$C4,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B4,SUBSTITUTE(E$1,"P",0),1)),(LEN(E$1)-LEN(SUBSTITUTE(E$1,"P","")))&lt;=(LEN($B4)-LEN(SUBSTITUTE($B4,0,"")))),
+   $C4/(LEN(E$1)-LEN(SUBSTITUTE(E$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B4,E$1,1)),
+ $C4,
+ 0))</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J17" si="4">"['"&amp;B4&amp;"',"&amp;C4&amp;"],"</f>
+        <v>['1000',1],</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="E4:Q17" si="5">IF(ISNUMBER(SEARCH($B4,K$1,1)),$C4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:Y17" si="6">IF(
+ IF(
+  ISNUMBER(SEARCH($B4,T$1,1)),$C4,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B4,SUBSTITUTE(T$1,"P",0),1)),(LEN(T$1)-LEN(SUBSTITUTE(T$1,"P","")))&lt;=(LEN($B4)-LEN(SUBSTITUTE($B4,0,"")))),
+   $C4/(LEN(T$1)-LEN(SUBSTITUTE(T$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B4,T$1,1)),
+ $C4,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AG17" si="7">IF(
+ IF(
+  ISNUMBER(SEARCH($B4,AB$1,1)),$C4,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B4,SUBSTITUTE(AB$1,"P",0),1)),(LEN(AB$1)-LEN(SUBSTITUTE(AB$1,"P","")))&lt;=(LEN($B4)-LEN(SUBSTITUTE($B4,0,"")))),
+   $C4/(LEN(AB$1)-LEN(SUBSTITUTE(AB$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B4,AB$1,1)),
+ $C4,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:33">
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1375,11 +3848,11 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:I5" si="3">IF(ISNUMBER(SEARCH(C5,E$1,1)),D5,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F5">
@@ -1398,9 +3871,89 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>['0010',2],</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:33">
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1408,32 +3961,112 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:I6" si="4">IF(ISNUMBER(SEARCH(C6,E$1,1)),D6,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
+        <v>['0100',2],</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5">
+    <row r="7" spans="1:33">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1443,32 +4076,112 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:I7" si="5">IF(ISNUMBER(SEARCH(C7,E$1,1)),D7,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>['0101',5],</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:33">
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1476,32 +4189,112 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:I8" si="6">IF(ISNUMBER(SEARCH(C8,E$1,1)),D8,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>['1010',5],</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:33">
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1509,32 +4302,112 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:I9" si="7">IF(ISNUMBER(SEARCH(C9,E$1,1)),D9,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>['1001',5],</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:33">
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1542,32 +4415,112 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:I10" si="8">IF(ISNUMBER(SEARCH(C10,E$1,1)),D10,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>['0011',6],</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:33">
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1575,65 +4528,225 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:I11" si="9">IF(ISNUMBER(SEARCH(C11,E$1,1)),D11,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>['1100',6],</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:33">
+      <c r="A12" s="14"/>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:I12" si="10">IF(ISNUMBER(SEARCH(C12,E$1,1)),D12,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>['0110',13],</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5">
+    <row r="13" spans="1:33">
+      <c r="A13" s="14">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1643,32 +4756,112 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:I13" si="11">IF(ISNUMBER(SEARCH(C13,E$1,1)),D13,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>['0111',15],</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:33">
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1676,32 +4869,112 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:I14" si="12">IF(ISNUMBER(SEARCH(C14,E$1,1)),D14,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>['1011',15],</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:33">
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1709,32 +4982,112 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:I15" si="13">IF(ISNUMBER(SEARCH(C15,E$1,1)),D15,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>['1101',15],</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:33">
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1742,31 +5095,111 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:I16" si="14">IF(ISNUMBER(SEARCH(C16,E$1,1)),D16,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v>['1110',15],</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:33">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1777,31 +5210,120 @@
         <v>500</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:I17" si="15">IF(ISNUMBER(SEARCH(C17,E$1,1)),D17,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>['1111',500],</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f>IF(
+ IF(
+  ISNUMBER(SEARCH($B17,AG$1,1)),$C17,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B17,SUBSTITUTE(AG$1,"P",0),1)),(LEN(AG$1)-LEN(SUBSTITUTE(AG$1,"P","")))&lt;=(LEN($B17)-LEN(SUBSTITUTE($B17,0,"")))),
+   $C17/(LEN(AG$1)-LEN(SUBSTITUTE(AG$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B17,AG$1,1)),
+ $C17,
+ 0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1812,8 +5334,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5">
+    <row r="20" spans="1:33">
+      <c r="A20" s="14">
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1827,28 +5349,135 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:I20" si="16">IF(ISNUMBER(SEARCH(C20,E$1,1)),D20,0)</f>
+        <f t="shared" ref="E20:I27" si="8">IF(
+ IF(
+  ISNUMBER(SEARCH($B20,E$1,1)),$C20,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B20,SUBSTITUTE(E$1,"P",0),1)),(LEN(E$1)-LEN(SUBSTITUTE(E$1,"P","")))&lt;=(LEN($B20)-LEN(SUBSTITUTE($B20,0,"")))),
+   $C20/(LEN(E$1)-LEN(SUBSTITUTE(E$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B20,E$1,1)),
+ $C20,
+ 0))</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" ref="J20:J27" si="9">"['"&amp;B20&amp;"',"&amp;C20&amp;"],"</f>
+        <v>['00010',1],</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="E20:Q20" si="10">IF(ISNUMBER(SEARCH($B20,K$1,1)),$C20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:Y27" si="11">IF(
+ IF(
+  ISNUMBER(SEARCH($B20,T$1,1)),$C20,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B20,SUBSTITUTE(T$1,"P",0),1)),(LEN(T$1)-LEN(SUBSTITUTE(T$1,"P","")))&lt;=(LEN($B20)-LEN(SUBSTITUTE($B20,0,"")))),
+   $C20/(LEN(T$1)-LEN(SUBSTITUTE(T$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B20,T$1,1)),
+ $C20,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" ref="AB20:AG27" si="12">IF(
+ IF(
+  ISNUMBER(SEARCH($B20,AB$1,1)),$C20,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B20,SUBSTITUTE(AB$1,"P",0),1)),(LEN(AB$1)-LEN(SUBSTITUTE(AB$1,"P","")))&lt;=(LEN($B20)-LEN(SUBSTITUTE($B20,0,"")))),
+   $C20/(LEN(AB$1)-LEN(SUBSTITUTE(AB$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B20,AB$1,1)),
+ $C20,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:33">
+      <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1856,32 +5485,112 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D27" si="17">IF(ISNUMBER(SEARCH($B21,D$1,1)),$C21,0)</f>
+        <f t="shared" ref="D21:Q27" si="13">IF(ISNUMBER(SEARCH($B21,D$1,1)),$C21,0)</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:I21" si="18">IF(ISNUMBER(SEARCH(C21,E$1,1)),D21,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="9"/>
+        <v>['01000',1],</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:33">
+      <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1889,32 +5598,112 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:I22" si="19">IF(ISNUMBER(SEARCH(C22,E$1,1)),D22,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="9"/>
+        <v>['00100',2],</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="5">
+    <row r="23" spans="1:33">
+      <c r="A23" s="14">
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1924,32 +5713,112 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:I23" si="20">IF(ISNUMBER(SEARCH(C23,E$1,1)),D23,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="9"/>
+        <v>['01010',2],</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:33">
+      <c r="A24" s="14"/>
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
@@ -1957,32 +5826,112 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:I24" si="21">IF(ISNUMBER(SEARCH(C24,E$1,1)),D24,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="9"/>
+        <v>['00110',3],</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:33">
+      <c r="A25" s="14"/>
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1990,32 +5939,112 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:I25" si="22">IF(ISNUMBER(SEARCH(C25,E$1,1)),D25,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="9"/>
+        <v>['01100',3],</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5">
+    <row r="26" spans="1:33">
+      <c r="A26" s="14">
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2025,32 +6054,112 @@
         <v>400</v>
       </c>
       <c r="D26">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>400</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:I26" si="23">IF(ISNUMBER(SEARCH(C26,E$1,1)),D26,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="9"/>
+        <v>['01110',400],</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:33">
+      <c r="A27" s="14"/>
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
@@ -2058,31 +6167,111 @@
         <v>400</v>
       </c>
       <c r="D27">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>400</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:I27" si="24">IF(ISNUMBER(SEARCH(C27,E$1,1)),D27,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="9"/>
+        <v>['01110',400],</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2093,8 +6282,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="5">
+    <row r="30" spans="1:33">
+      <c r="A30" s="14">
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2108,28 +6297,135 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:I30" si="25">IF(ISNUMBER(SEARCH(C30,E$1,1)),D30,0)</f>
+        <f t="shared" ref="E30:I38" si="14">IF(
+ IF(
+  ISNUMBER(SEARCH($B30,E$1,1)),$C30,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B30,SUBSTITUTE(E$1,"P",0),1)),(LEN(E$1)-LEN(SUBSTITUTE(E$1,"P","")))&lt;=(LEN($B30)-LEN(SUBSTITUTE($B30,0,"")))),
+   $C30/(LEN(E$1)-LEN(SUBSTITUTE(E$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B30,E$1,1)),
+ $C30,
+ 0))</f>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30:J38" si="15">"['"&amp;B30&amp;"',"&amp;C30&amp;"],"</f>
+        <v>['000010',1],</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="E30:Q30" si="16">IF(ISNUMBER(SEARCH($B30,K$1,1)),$C30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ref="T30:Y38" si="17">IF(
+ IF(
+  ISNUMBER(SEARCH($B30,T$1,1)),$C30,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B30,SUBSTITUTE(T$1,"P",0),1)),(LEN(T$1)-LEN(SUBSTITUTE(T$1,"P","")))&lt;=(LEN($B30)-LEN(SUBSTITUTE($B30,0,"")))),
+   $C30/(LEN(T$1)-LEN(SUBSTITUTE(T$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B30,T$1,1)),
+ $C30,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" ref="AB30:AG38" si="18">IF(
+ IF(
+  ISNUMBER(SEARCH($B30,AB$1,1)),$C30,0)=0,
+  IF(
+   AND(ISNUMBER(SEARCH($B30,SUBSTITUTE(AB$1,"P",0),1)),(LEN(AB$1)-LEN(SUBSTITUTE(AB$1,"P","")))&lt;=(LEN($B30)-LEN(SUBSTITUTE($B30,0,"")))),
+   $C30/(LEN(AB$1)-LEN(SUBSTITUTE(AB$1,"P",""))+1),
+   0),
+  IF(ISNUMBER(SEARCH($B30,AB$1,1)),
+ $C30,
+ 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:33">
+      <c r="A31" s="14"/>
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
@@ -2137,32 +6433,112 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D38" si="26">IF(ISNUMBER(SEARCH($B31,D$1,1)),$C31,0)</f>
+        <f t="shared" ref="D31:Q38" si="19">IF(ISNUMBER(SEARCH($B31,D$1,1)),$C31,0)</f>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:I31" si="27">IF(ISNUMBER(SEARCH(C31,E$1,1)),D31,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="15"/>
+        <v>['010000',1],</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:33">
+      <c r="A32" s="14"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2170,32 +6546,112 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:I32" si="28">IF(ISNUMBER(SEARCH(C32,E$1,1)),D32,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="15"/>
+        <v>['001000',2],</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:33">
+      <c r="A33" s="14"/>
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
@@ -2203,32 +6659,112 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:I33" si="29">IF(ISNUMBER(SEARCH(C33,E$1,1)),D33,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="15"/>
+        <v>['000100',2],</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="5">
+    <row r="34" spans="1:33">
+      <c r="A34" s="14">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2238,32 +6774,112 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:I34" si="30">IF(ISNUMBER(SEARCH(C34,E$1,1)),D34,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="15"/>
+        <v>['000110',3],</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:33">
+      <c r="A35" s="14"/>
       <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
@@ -2271,32 +6887,112 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:I35" si="31">IF(ISNUMBER(SEARCH(C35,E$1,1)),D35,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="15"/>
+        <v>['011000',4],</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:33">
+      <c r="A36" s="14"/>
       <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
@@ -2304,32 +7000,112 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:I36" si="32">IF(ISNUMBER(SEARCH(C36,E$1,1)),D36,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="15"/>
+        <v>['001100',4],</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="5">
+    <row r="37" spans="1:33">
+      <c r="A37" s="14">
         <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2339,32 +7115,112 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:I37" si="33">IF(ISNUMBER(SEARCH(C37,E$1,1)),D37,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="15"/>
+        <v>['010110',1],</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:33">
+      <c r="A38" s="14"/>
       <c r="B38" s="3" t="s">
         <v>43</v>
       </c>
@@ -2372,27 +7228,107 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:I38" si="34">IF(ISNUMBER(SEARCH(C38,E$1,1)),D38,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="15"/>
+        <v>['011010',1],</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>

--- a/AI_logic_simulator.xlsx
+++ b/AI_logic_simulator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14600" windowHeight="14820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,8 +326,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="399">
+  <cellStyleXfs count="425">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -766,7 +792,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="399">
+  <cellStyles count="425">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -966,6 +992,19 @@
     <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1165,6 +1204,19 @@
     <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1496,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3246,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3511,8 +3563,8 @@
         <v>0</v>
       </c>
       <c r="J3" t="str">
-        <f>"['"&amp;B3&amp;"',"&amp;C3&amp;"],"</f>
-        <v>['0001',1],</v>
+        <f>B3&amp;"a"</f>
+        <v>0001a</v>
       </c>
       <c r="K3">
         <f t="shared" ref="E3:Q3" si="1">IF(ISNUMBER(SEARCH($B3,K$1,1)),$C3,0)</f>
@@ -3708,11 +3760,11 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D17" si="2">IF(ISNUMBER(SEARCH($B4,D$1,1)),$C4,0)</f>
+        <f>IF(ISNUMBER(SEARCH($B4,D$1,1)),$C4,0)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:I17" si="3">IF(
+        <f t="shared" ref="E4:I17" si="2">IF(
  IF(
   ISNUMBER(SEARCH($B4,E$1,1)),$C4,0)=0,
   IF(
@@ -3725,55 +3777,55 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J17" si="4">"['"&amp;B4&amp;"',"&amp;C4&amp;"],"</f>
-        <v>['1000',1],</v>
+        <f t="shared" ref="J4:J38" si="3">B4&amp;"a"</f>
+        <v>1000a</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="E4:Q17" si="5">IF(ISNUMBER(SEARCH($B4,K$1,1)),$C4,0)</f>
+        <f t="shared" ref="E4:Q17" si="4">IF(ISNUMBER(SEARCH($B4,K$1,1)),$C4,0)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:Y17" si="6">IF(
+        <f t="shared" ref="T4:Y17" si="5">IF(
  IF(
   ISNUMBER(SEARCH($B4,T$1,1)),$C4,0)=0,
   IF(
@@ -3786,27 +3838,27 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AG17" si="7">IF(
+        <f t="shared" ref="AB4:AG17" si="6">IF(
  IF(
   ISNUMBER(SEARCH($B4,AB$1,1)),$C4,0)=0,
   IF(
@@ -3819,23 +3871,23 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3848,107 +3900,107 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D4:D17" si="7">IF(ISNUMBER(SEARCH($B5,D$1,1)),$C5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="4"/>
-        <v>['0010',2],</v>
+        <v>0010a</v>
       </c>
       <c r="K5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3961,107 +4013,107 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="4"/>
-        <v>['0100',2],</v>
+        <v>0100a</v>
       </c>
       <c r="K6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4076,107 +4128,107 @@
         <v>5</v>
       </c>
       <c r="D7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="4"/>
-        <v>['0101',5],</v>
+        <v>0101a</v>
       </c>
       <c r="K7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4189,107 +4241,107 @@
         <v>5</v>
       </c>
       <c r="D8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="4"/>
-        <v>['1010',5],</v>
+        <v>1010a</v>
       </c>
       <c r="K8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4302,107 +4354,107 @@
         <v>5</v>
       </c>
       <c r="D9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="4"/>
-        <v>['1001',5],</v>
+        <v>1001a</v>
       </c>
       <c r="K9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4415,107 +4467,107 @@
         <v>6</v>
       </c>
       <c r="D10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="4"/>
-        <v>['0011',6],</v>
+        <v>0011a</v>
       </c>
       <c r="K10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4528,107 +4580,107 @@
         <v>6</v>
       </c>
       <c r="D11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="4"/>
-        <v>['1100',6],</v>
+        <v>1100a</v>
       </c>
       <c r="K11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4641,107 +4693,107 @@
         <v>13</v>
       </c>
       <c r="D12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="4"/>
-        <v>['0110',13],</v>
+        <v>0110a</v>
       </c>
       <c r="K12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="W12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4756,107 +4808,107 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="4"/>
-        <v>['0111',15],</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD13">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v>0111a</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
       <c r="AE13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4869,107 +4921,107 @@
         <v>15</v>
       </c>
       <c r="D14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="4"/>
-        <v>['1011',15],</v>
+        <v>1011a</v>
       </c>
       <c r="K14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4982,107 +5034,107 @@
         <v>15</v>
       </c>
       <c r="D15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="4"/>
-        <v>['1101',15],</v>
+        <v>1101a</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5095,107 +5147,107 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="4"/>
-        <v>['1110',15],</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD16">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v>1110a</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
       <c r="AE16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5210,103 +5262,103 @@
         <v>500</v>
       </c>
       <c r="D17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="4"/>
-        <v>['1111',500],</v>
+        <v>1111a</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG17">
@@ -5323,6 +5375,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:33">
+      <c r="J18" t="str">
+        <f t="shared" si="3"/>
+        <v>a</v>
+      </c>
+    </row>
     <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>20</v>
@@ -5332,6 +5390,10 @@
       </c>
       <c r="C19" t="s">
         <v>24</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="3"/>
+        <v>Permutationsa</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -5378,39 +5440,39 @@
         <v>0</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" ref="J20:J27" si="9">"['"&amp;B20&amp;"',"&amp;C20&amp;"],"</f>
-        <v>['00010',1],</v>
+        <f t="shared" si="3"/>
+        <v>00010a</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="E20:Q20" si="10">IF(ISNUMBER(SEARCH($B20,K$1,1)),$C20,0)</f>
+        <f t="shared" ref="E20:Q20" si="9">IF(ISNUMBER(SEARCH($B20,K$1,1)),$C20,0)</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" ref="T20:Y27" si="11">IF(
+        <f t="shared" ref="T20:Y27" si="10">IF(
  IF(
   ISNUMBER(SEARCH($B20,T$1,1)),$C20,0)=0,
   IF(
@@ -5423,27 +5485,27 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB20">
-        <f t="shared" ref="AB20:AG27" si="12">IF(
+        <f t="shared" ref="AB20:AG27" si="11">IF(
  IF(
   ISNUMBER(SEARCH($B20,AB$1,1)),$C20,0)=0,
   IF(
@@ -5456,23 +5518,23 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5485,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:Q27" si="13">IF(ISNUMBER(SEARCH($B21,D$1,1)),$C21,0)</f>
+        <f t="shared" ref="D21:Q27" si="12">IF(ISNUMBER(SEARCH($B21,D$1,1)),$C21,0)</f>
         <v>0</v>
       </c>
       <c r="E21">
@@ -5509,83 +5571,83 @@
         <v>0</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="9"/>
-        <v>['01000',1],</v>
+        <f t="shared" si="3"/>
+        <v>01000a</v>
       </c>
       <c r="K21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U21">
+      <c r="AC21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V21">
+      <c r="AD21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="AE21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X21">
+      <c r="AF21">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="AG21">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5598,7 +5660,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E22">
@@ -5622,83 +5684,83 @@
         <v>0</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="9"/>
-        <v>['00100',2],</v>
+        <f t="shared" si="3"/>
+        <v>00100a</v>
       </c>
       <c r="K22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="AC22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V22">
+      <c r="AD22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="AE22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X22">
+      <c r="AF22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="AG22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5713,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E23">
@@ -5737,83 +5799,83 @@
         <v>0</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="9"/>
-        <v>['01010',2],</v>
+        <f t="shared" si="3"/>
+        <v>01010a</v>
       </c>
       <c r="K23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U23">
+      <c r="AC23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V23">
+      <c r="AD23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="AE23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="AF23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="AG23">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5826,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E24">
@@ -5850,83 +5912,83 @@
         <v>0</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="9"/>
-        <v>['00110',3],</v>
+        <f t="shared" si="3"/>
+        <v>00110a</v>
       </c>
       <c r="K24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U24">
+      <c r="AC24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V24">
+      <c r="AD24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W24">
+      <c r="AE24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X24">
+      <c r="AF24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="AG24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5939,7 +6001,7 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E25">
@@ -5963,83 +6025,83 @@
         <v>0</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="9"/>
-        <v>['01100',3],</v>
+        <f t="shared" si="3"/>
+        <v>01100a</v>
       </c>
       <c r="K25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U25">
+      <c r="AC25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V25">
+      <c r="AD25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W25">
+      <c r="AE25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="AF25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="AG25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6054,7 +6116,7 @@
         <v>400</v>
       </c>
       <c r="D26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>400</v>
       </c>
       <c r="E26">
@@ -6078,83 +6140,83 @@
         <v>0</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="9"/>
-        <v>['01110',400],</v>
+        <f t="shared" si="3"/>
+        <v>01110a</v>
       </c>
       <c r="K26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U26">
+      <c r="AC26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V26">
+      <c r="AD26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W26">
+        <v>400</v>
+      </c>
+      <c r="AE26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="AF26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y26">
+      <c r="AG26">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="12"/>
-        <v>400</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6167,7 +6229,7 @@
         <v>400</v>
       </c>
       <c r="D27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>400</v>
       </c>
       <c r="E27">
@@ -6191,84 +6253,90 @@
         <v>0</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="9"/>
-        <v>['01110',400],</v>
+        <f t="shared" si="3"/>
+        <v>01110a</v>
       </c>
       <c r="K27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U27">
+      <c r="AC27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V27">
+      <c r="AD27">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W27">
+        <v>400</v>
+      </c>
+      <c r="AE27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="AF27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="AG27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="12"/>
-        <v>400</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <f t="shared" si="12"/>
-        <v>0</v>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>a</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -6281,6 +6349,10 @@
       <c r="C29" t="s">
         <v>24</v>
       </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>Permutationsa</v>
+      </c>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="14">
@@ -6297,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:I38" si="14">IF(
+        <f t="shared" ref="E30:I38" si="13">IF(
  IF(
   ISNUMBER(SEARCH($B30,E$1,1)),$C30,0)=0,
   IF(
@@ -6310,55 +6382,55 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>000010a</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="E30:Q30" si="14">IF(ISNUMBER(SEARCH($B30,K$1,1)),$C30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="M30">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H30">
+      <c r="N30">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J30" t="str">
-        <f t="shared" ref="J30:J38" si="15">"['"&amp;B30&amp;"',"&amp;C30&amp;"],"</f>
-        <v>['000010',1],</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ref="E30:Q30" si="16">IF(ISNUMBER(SEARCH($B30,K$1,1)),$C30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="P30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" ref="T30:Y38" si="17">IF(
+        <f t="shared" ref="T30:Y38" si="15">IF(
  IF(
   ISNUMBER(SEARCH($B30,T$1,1)),$C30,0)=0,
   IF(
@@ -6371,27 +6443,27 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB30">
-        <f t="shared" ref="AB30:AG38" si="18">IF(
+        <f t="shared" ref="AB30:AG38" si="16">IF(
  IF(
   ISNUMBER(SEARCH($B30,AB$1,1)),$C30,0)=0,
   IF(
@@ -6404,23 +6476,23 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6433,107 +6505,107 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:Q38" si="19">IF(ISNUMBER(SEARCH($B31,D$1,1)),$C31,0)</f>
+        <f t="shared" ref="D31:Q38" si="17">IF(ISNUMBER(SEARCH($B31,D$1,1)),$C31,0)</f>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>010000a</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="15"/>
-        <v>['010000',1],</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6546,107 +6618,107 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>001000a</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="15"/>
-        <v>['001000',2],</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6659,107 +6731,107 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v>000100a</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="15"/>
-        <v>['000100',2],</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6774,107 +6846,107 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v>000110a</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="15"/>
-        <v>['000110',3],</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -6887,107 +6959,107 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v>011000a</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="15"/>
-        <v>['011000',4],</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7000,107 +7072,107 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>001100a</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="15"/>
-        <v>['001100',4],</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7115,107 +7187,107 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v>010110a</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="15"/>
-        <v>['010110',1],</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7228,107 +7300,107 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v>011010a</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="15"/>
-        <v>['011010',1],</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>

--- a/AI_logic_simulator.xlsx
+++ b/AI_logic_simulator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14600" windowHeight="14820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="14600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <t>COLUMN</t>
   </si>
@@ -291,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +316,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -753,7 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -789,6 +795,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO46"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1655,7 +1664,7 @@
       </c>
       <c r="AD11" s="5">
         <f>I14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="5">
         <f>J15</f>
@@ -1669,15 +1678,15 @@
       <c r="AJ11" s="9"/>
       <c r="AK11" s="13" t="str">
         <f t="shared" ref="AK11:AK14" si="1">IF(AND(AB11=0,AB12=0),IF(AND(AB11=0,AB12=0,AB13=0),"X","P"),AB11)</f>
-        <v>P</v>
+        <v>X</v>
       </c>
       <c r="AL11" s="13">
         <f t="shared" ref="AL11:AL13" si="2">IF(AND(AC11=0,AC12=0),IF(AND(AC11=0,AC12=0,AC13=0),"X","P"),AC11)</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="13">
+      <c r="AM11" s="13" t="str">
         <f t="shared" ref="AM11:AM12" si="3">IF(AND(AD11=0,AD12=0),IF(AND(AD11=0,AD12=0,AD13=0),"X","P"),AD11)</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="AN11" s="13" t="str">
         <f t="shared" ref="AN11" si="4">IF(AND(AE11=0,AE12=0),IF(AND(AE11=0,AE12=0,AE13=0),"X","P"),AE11)</f>
@@ -1685,7 +1694,7 @@
       </c>
       <c r="AO11" t="str">
         <f>CONCATENATE(AH11,AI11,AJ11,AK11,AL11,AM11,AN11)</f>
-        <v>P01P</v>
+        <v>X0XP</v>
       </c>
     </row>
     <row r="12" spans="2:41" ht="21" customHeight="1">
@@ -1738,11 +1747,11 @@
       </c>
       <c r="R12" s="5">
         <f>MAX(Sheet2!U3:U17)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S12" s="5">
         <f>MAX(Sheet2!V3:V17)</f>
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="T12" s="5">
         <f>MAX(Sheet2!W3:W17)</f>
@@ -1750,11 +1759,11 @@
       </c>
       <c r="U12" s="5">
         <f>MAX(Sheet2!X3:X17)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V12" s="5">
         <f>MAX(Sheet2!Y3:Y17)</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="X12" t="str">
         <f>CONCATENATE(P11," ",U11)</f>
@@ -1774,13 +1783,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AC12" s="5" t="str">
         <f>H14</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="AD12" s="5">
         <f>I15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="5">
         <f>J16</f>
@@ -1791,21 +1800,21 @@
       </c>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
-      <c r="AJ12" s="13" t="str">
+      <c r="AJ12" s="13">
         <f>IF(AND(AA12=0,AA13=0),IF(AND(AA12=0,AA13=0,AA14=0),"X","P"),AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="AK12" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="13">
+      <c r="AL12" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AM12" s="13">
+        <v>X</v>
+      </c>
+      <c r="AM12" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="AN12" s="13">
         <f>IF(AND(AE12=0,AE13=0),"P",AE12)</f>
@@ -1813,7 +1822,7 @@
       </c>
       <c r="AO12" t="str">
         <f t="shared" ref="AO12:AO16" si="6">CONCATENATE(AH12,AI12,AJ12,AK12,AL12,AM12,AN12)</f>
-        <v>X0110</v>
+        <v>0XXX0</v>
       </c>
     </row>
     <row r="13" spans="2:41" ht="21" customHeight="1">
@@ -1823,11 +1832,11 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1895,21 +1904,21 @@
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="5" t="str">
         <f t="shared" ref="AA13:AA16" si="7">F13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="5" t="str">
+        <v>X</v>
+      </c>
+      <c r="AB13" s="5">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="AC13" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
         <f>H15</f>
-        <v>X</v>
-      </c>
-      <c r="AD13" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="5">
         <f>I16</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="6" t="str">
         <f>J17</f>
@@ -1919,33 +1928,33 @@
         <v>3</v>
       </c>
       <c r="AH13" s="9"/>
-      <c r="AI13" s="13" t="str">
+      <c r="AI13" s="13">
         <f>IF(AND(Z13=0,Z14=0),IF(AND(Z13=0,Z14=0,Z15=0),"X","P"),Z13)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="13" t="str">
-        <f t="shared" ref="AJ13:AJ14" si="8">IF(AND(AA13=0,AA14=0),IF(AND(AA13=0,AA14=0,AA15=0),"X","P"),AA13)</f>
+        <f>IF(AND(AA13=0,AA14=0),IF(AND(AA13=0,AA14=0,AA15=0),"X","P"),AA13)</f>
         <v>X</v>
       </c>
       <c r="AK13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="AL13" s="13" t="str">
+        <v>P</v>
+      </c>
+      <c r="AL13" s="13">
         <f t="shared" si="2"/>
-        <v>X</v>
-      </c>
-      <c r="AM13" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="15" t="str">
         <f>IF(AND(AD13=0,AD14=0),"P",AD13)</f>
-        <v>X</v>
-      </c>
-      <c r="AN13" s="13" t="str">
+        <v>P</v>
+      </c>
+      <c r="AN13" s="15" t="str">
         <f>AE13</f>
         <v>X</v>
       </c>
       <c r="AO13" t="str">
         <f t="shared" si="6"/>
-        <v>XXXXXX</v>
+        <v>0XP1PX</v>
       </c>
     </row>
     <row r="14" spans="2:41" ht="21" customHeight="1">
@@ -1961,14 +1970,14 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -2023,9 +2032,9 @@
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="5">
-        <f t="shared" ref="Z14:Z16" si="9">E13</f>
-        <v>0</v>
+      <c r="Z14" s="5" t="str">
+        <f t="shared" ref="Z14:Z16" si="8">E13</f>
+        <v>X</v>
       </c>
       <c r="AA14" s="5">
         <f t="shared" si="7"/>
@@ -2033,11 +2042,11 @@
       </c>
       <c r="AB14" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="5">
         <f>H16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="5">
         <f>I17</f>
@@ -2054,29 +2063,29 @@
         <v>X</v>
       </c>
       <c r="AI14" s="13" t="str">
-        <f t="shared" ref="AI14:AI16" si="10">IF(AND(Z14=0,Z15=0),IF(AND(Z14=0,Z15=0,Z16=0),"X","P"),Z14)</f>
+        <f t="shared" ref="AI14:AI16" si="9">IF(AND(Z14=0,Z15=0),IF(AND(Z14=0,Z15=0,Z16=0),"X","P"),Z14)</f>
         <v>X</v>
       </c>
-      <c r="AJ14" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>P</v>
+      <c r="AJ14" s="13">
+        <f t="shared" ref="AJ13:AJ14" si="10">IF(AND(AA14=0,AA15=0),IF(AND(AA14=0,AA15=0,AA16=0),"X","P"),AA14)</f>
+        <v>0</v>
       </c>
       <c r="AK14" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="15" t="str">
         <f>IF(AND(AC14=0,AC15=0),"P",AC14)</f>
-        <v>1</v>
-      </c>
-      <c r="AM14" s="13">
+        <v>P</v>
+      </c>
+      <c r="AM14" s="15">
         <f>AD14</f>
         <v>0</v>
       </c>
       <c r="AN14" s="9"/>
       <c r="AO14" t="str">
         <f>CONCATENATE(AH14,AI14,AJ14,AK14,AL14,AM14,AN14)</f>
-        <v>XXP110</v>
+        <v>XX00P0</v>
       </c>
     </row>
     <row r="15" spans="2:41" ht="21" customHeight="1">
@@ -2087,26 +2096,26 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15">
         <f>MAX(Sheet2!F3:F17)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L15">
         <f>MAX(Sheet2!F20:F27)</f>
@@ -2118,7 +2127,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P15" t="s">
         <v>63</v>
@@ -2129,11 +2138,11 @@
       </c>
       <c r="R15" s="5">
         <f t="shared" ref="R15:V15" si="11">SUM(R12:R14)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="11"/>
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="T15" s="5">
         <f t="shared" si="11"/>
@@ -2141,11 +2150,11 @@
       </c>
       <c r="U15" s="5">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5">
         <f t="shared" si="11"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="X15" t="s">
         <v>66</v>
@@ -2155,20 +2164,20 @@
         <v>0</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA15" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="5">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="5">
         <f>H17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="9" t="s">
         <v>3</v>
@@ -2177,30 +2186,30 @@
         <v>3</v>
       </c>
       <c r="AH15" s="13" t="str">
-        <f t="shared" ref="AH15:AH16" si="13">IF(AND(Y15=0,Y16=0),IF(AND(Y15=0,Y16=0,Y17=0),"X","P"),Y15)</f>
+        <f>IF(AND(Y15=0,Y16=0),IF(AND(Y15=0,Y16=0,Y17=0),"X","P"),Y15)</f>
         <v>X</v>
       </c>
-      <c r="AI15" s="13" t="str">
-        <f t="shared" si="10"/>
-        <v>X</v>
+      <c r="AI15" s="13">
+        <f>IF(AND(Z15=0,Z16=0),IF(AND(Z15=0,Z16=0,Z17=0),"X","P"),Z15)</f>
+        <v>0</v>
       </c>
       <c r="AJ15" s="13">
         <f>IF(AND(AA15=0,AA16=0),IF(AND(AA15=0,AA16=0,AA17=0),"X","P"),AA15)</f>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="15">
         <f>IF(AND(AB15=0,AB16=0),"P",AB15)</f>
-        <v>X</v>
-      </c>
-      <c r="AL15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="15">
         <f>AC15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" t="str">
         <f t="shared" si="6"/>
-        <v>XX0X1</v>
+        <v>X0110</v>
       </c>
     </row>
     <row r="16" spans="2:41" ht="21" customHeight="1">
@@ -2208,56 +2217,56 @@
         <v>5</v>
       </c>
       <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16">
         <f>MAX(Sheet2!E3:E17)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L16">
         <f>MAX(Sheet2!E20:E27)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
         <f>MAX(Sheet2!E30:E38)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="s">
         <v>67</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" si="12"/>
+        <f>D14</f>
         <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="AA16" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="0"/>
@@ -2271,18 +2280,18 @@
       </c>
       <c r="AE16" s="9"/>
       <c r="AH16" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v>P</v>
-      </c>
-      <c r="AI16" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AND(Y16=0,Y17=0),IF(AND(Y16=0,Y17=0,Y18=0),"X","P"),Y16)</f>
         <v>X</v>
       </c>
-      <c r="AJ16" s="13">
+      <c r="AI16" s="13">
+        <f>IF(AND(Z16=0,Z17=0),IF(AND(Z16=0,Z17=0,Z18=0),"X","P"),Z16)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="15">
         <f>IF(AND(AA16=0,AA17=0),"P",AA16)</f>
-        <v>1</v>
-      </c>
-      <c r="AK16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="15">
         <f>AB16</f>
         <v>1</v>
       </c>
@@ -2291,7 +2300,7 @@
       <c r="AN16" s="9"/>
       <c r="AO16" t="str">
         <f t="shared" si="6"/>
-        <v>PX11</v>
+        <v>X101</v>
       </c>
     </row>
     <row r="17" spans="3:41" ht="21" customHeight="1">
@@ -2311,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="K17">
         <f>MAX(Sheet2!D3:D17)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L17">
         <f>MAX(Sheet2!D20:D27)</f>
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <f>MAX(Sheet2!D30:D38)</f>
@@ -2333,7 +2342,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
-        <v>415</v>
+        <v>16</v>
       </c>
       <c r="Y17" s="9">
         <f t="shared" si="12"/>
@@ -2354,7 +2363,7 @@
     <row r="18" spans="3:41">
       <c r="Y18" s="9">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="9">
         <f>E17</f>
@@ -2368,19 +2377,19 @@
       </c>
       <c r="D19">
         <f>MAX(Sheet2!K3:K17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <f>MAX(Sheet2!L3:L17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <f>MAX(Sheet2!M3:M17)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <f>MAX(Sheet2!N3:N17)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <f>MAX(Sheet2!O3:O17)</f>
@@ -2388,7 +2397,7 @@
       </c>
       <c r="I19">
         <f>MAX(Sheet2!P3:P17)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <f>MAX(Sheet2!Q3:Q17)</f>
@@ -2473,30 +2482,30 @@
       </c>
       <c r="D22">
         <f>SUM(D19:D21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:J22" si="14">SUM(E19:E21)</f>
-        <v>0</v>
+        <f t="shared" ref="E22:J22" si="13">SUM(E19:E21)</f>
+        <v>2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="H22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="14"/>
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M22" s="7" t="s">
@@ -2504,7 +2513,7 @@
       </c>
       <c r="N22">
         <f>SUM(D22:J22,N12:N17,Q15:V15,Q33:V33)</f>
-        <v>863.16666666666674</v>
+        <v>59.166666666666664</v>
       </c>
     </row>
     <row r="29" spans="3:41">
@@ -2547,11 +2556,11 @@
       </c>
       <c r="S30" s="5">
         <f>MAX(Sheet2!AD3:AD17)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T30" s="5">
         <f>MAX(Sheet2!AE3:AE17)</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U30" s="5">
         <f>MAX(Sheet2!AF3:AF17)</f>
@@ -2571,12 +2580,12 @@
         <v>3</v>
       </c>
       <c r="AB30" s="5">
-        <f t="shared" ref="AB30:AB35" si="15">G12</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="5">
+        <f t="shared" ref="AB30:AB35" si="14">G12</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5" t="str">
         <f>F13</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="AD30" s="5">
         <f>E14</f>
@@ -2593,24 +2602,24 @@
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9"/>
       <c r="AK30" s="5" t="str">
-        <f t="shared" ref="AK30:AN33" si="16">IF(AND(AB30=0,AB31=0),IF(AND(AB30=0,AB31=0,AB32=0),"X","P"),AB30)</f>
+        <f t="shared" ref="AK30:AN33" si="15">IF(AND(AB30=0,AB31=0),IF(AND(AB30=0,AB31=0,AB32=0),"X","P"),AB30)</f>
+        <v>X</v>
+      </c>
+      <c r="AL30" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="AM30" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>P</v>
-      </c>
-      <c r="AL30" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>X</v>
-      </c>
-      <c r="AM30" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>X</v>
-      </c>
-      <c r="AN30" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="AO30" t="str">
         <f>CONCATENATE(AH30,AI30,AJ30,AK30,AL30,AM30,AN30)</f>
-        <v>PXX0</v>
+        <v>XX0P</v>
       </c>
     </row>
     <row r="31" spans="3:41">
@@ -2627,7 +2636,7 @@
       </c>
       <c r="S31" s="5">
         <f>MAX(Sheet2!AD20:AD27)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T31" s="5">
         <f>MAX(Sheet2!AE20:AE27)</f>
@@ -2651,11 +2660,11 @@
         <v>3</v>
       </c>
       <c r="AA31" s="5">
-        <f t="shared" ref="AA31:AA36" si="17">H12</f>
+        <f t="shared" ref="AA31:AA36" si="16">H12</f>
         <v>0</v>
       </c>
       <c r="AB31" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC31" s="5">
@@ -2664,11 +2673,11 @@
       </c>
       <c r="AD31" s="5">
         <f>E15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="5">
         <f>D16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="10" t="s">
         <v>3</v>
@@ -2680,25 +2689,25 @@
         <f>IF(AND(AA31=0,AA32=0),IF(AND(AA31=0,AA32=0,AA33=0),"X","P"),AA31)</f>
         <v>P</v>
       </c>
-      <c r="AK31" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="5" t="str">
-        <f t="shared" ref="AL31" si="18">IF(AND(AC31=0,AC32=0),IF(AND(AC31=0,AC32=0,AC33=0),"X","P"),AC31)</f>
-        <v>P</v>
-      </c>
-      <c r="AM31" s="5" t="str">
-        <f t="shared" ref="AM31" si="19">IF(AND(AD31=0,AD32=0),IF(AND(AD31=0,AD32=0,AD33=0),"X","P"),AD31)</f>
+      <c r="AK31" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>X</v>
+      </c>
+      <c r="AL31" s="5">
+        <f t="shared" ref="AL31" si="17">IF(AND(AC31=0,AC32=0),IF(AND(AC31=0,AC32=0,AC33=0),"X","P"),AC31)</f>
+        <v>0</v>
+      </c>
+      <c r="AM31" s="5">
+        <f t="shared" ref="AM31" si="18">IF(AND(AD31=0,AD32=0),IF(AND(AD31=0,AD32=0,AD33=0),"X","P"),AD31)</f>
+        <v>1</v>
       </c>
       <c r="AN31" s="5">
         <f>IF(AND(AE31=0,AE32=0),"P",AE31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="str">
-        <f t="shared" ref="AO31:AO32" si="20">CONCATENATE(AH31,AI31,AJ31,AK31,AL31,AM31,AN31)</f>
-        <v>P0PX1</v>
+        <f t="shared" ref="AO31:AO32" si="19">CONCATENATE(AH31,AI31,AJ31,AK31,AL31,AM31,AN31)</f>
+        <v>PX010</v>
       </c>
     </row>
     <row r="32" spans="3:41">
@@ -2736,20 +2745,20 @@
         <v>3</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" ref="Z32:Z37" si="21">I12</f>
+        <f t="shared" ref="Z32:Z37" si="20">I12</f>
         <v>0</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>X</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AC32" s="5">
         <f>F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="5">
         <f>E16</f>
@@ -2766,19 +2775,19 @@
       <c r="AH32" s="9"/>
       <c r="AI32" s="5" t="str">
         <f>IF(AND(Z32=0,Z33=0),IF(AND(Z32=0,Z33=0,Z34=0),"X","P"),Z32)</f>
+        <v>X</v>
+      </c>
+      <c r="AJ32" s="5">
+        <f t="shared" ref="AJ32:AJ33" si="21">IF(AND(AA32=0,AA33=0),IF(AND(AA32=0,AA33=0,AA34=0),"X","P"),AA32)</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>P</v>
       </c>
-      <c r="AJ32" s="5">
-        <f t="shared" ref="AJ32:AJ33" si="22">IF(AND(AA32=0,AA33=0),IF(AND(AA32=0,AA33=0,AA34=0),"X","P"),AA32)</f>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>X</v>
-      </c>
       <c r="AL32" s="5">
-        <f t="shared" ref="AL32" si="23">IF(AND(AC32=0,AC33=0),IF(AND(AC32=0,AC33=0,AC34=0),"X","P"),AC32)</f>
-        <v>0</v>
+        <f t="shared" ref="AL32" si="22">IF(AND(AC32=0,AC33=0),IF(AND(AC32=0,AC33=0,AC34=0),"X","P"),AC32)</f>
+        <v>1</v>
       </c>
       <c r="AM32" s="5" t="str">
         <f>IF(AND(AD32=0,AD33=0),"P",AD32)</f>
@@ -2789,8 +2798,8 @@
         <v>X</v>
       </c>
       <c r="AO32" t="str">
-        <f t="shared" si="20"/>
-        <v>P0X0PX</v>
+        <f t="shared" si="19"/>
+        <v>X0P1PX</v>
       </c>
     </row>
     <row r="33" spans="16:41">
@@ -2802,47 +2811,47 @@
         <v>0</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" ref="R33:V33" si="24">SUM(R30:R32)</f>
+        <f t="shared" ref="R33:V33" si="23">SUM(R30:R32)</f>
         <v>0</v>
       </c>
       <c r="S33" s="5">
-        <f t="shared" si="24"/>
-        <v>415</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U33" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X33" t="s">
         <v>70</v>
       </c>
       <c r="Y33" s="5">
-        <f t="shared" ref="Y33:Y38" si="25">J12</f>
+        <f t="shared" ref="Y33:Y38" si="24">J12</f>
         <v>0</v>
       </c>
       <c r="Z33" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="5">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>X</v>
       </c>
       <c r="AB33" s="5">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AC33" s="5">
         <f>F16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="5">
         <f>E17</f>
@@ -2859,21 +2868,21 @@
         <f>IF(AND(Y33=0,Y34=0),IF(AND(Y33=0,Y34=0,Y35=0),"X","P"),Y33)</f>
         <v>X</v>
       </c>
-      <c r="AI33" s="5">
-        <f t="shared" ref="AI33:AI35" si="26">IF(AND(Z33=0,Z34=0),IF(AND(Z33=0,Z34=0,Z35=0),"X","P"),Z33)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="5">
-        <f t="shared" si="22"/>
-        <v>1</v>
+      <c r="AI33" s="5" t="str">
+        <f t="shared" ref="AI33:AI35" si="25">IF(AND(Z33=0,Z34=0),IF(AND(Z33=0,Z34=0,Z35=0),"X","P"),Z33)</f>
+        <v>X</v>
+      </c>
+      <c r="AJ33" s="5" t="str">
+        <f t="shared" si="21"/>
+        <v>X</v>
       </c>
       <c r="AK33" s="5">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AL33" s="5">
         <f>IF(AND(AC33=0,AC34=0),"P",AC33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="5">
         <f>AD33</f>
@@ -2882,7 +2891,7 @@
       <c r="AN33" s="9"/>
       <c r="AO33" t="str">
         <f>CONCATENATE(AH33,AI33,AJ33,AK33,AL33,AM33,AN33)</f>
-        <v>X01110</v>
+        <v>XXX000</v>
       </c>
     </row>
     <row r="34" spans="16:41">
@@ -2890,20 +2899,20 @@
         <v>71</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="5">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AA34" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>X</v>
-      </c>
-      <c r="AB34" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>X</v>
+      <c r="AB34" s="5">
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AC34" s="5">
         <f>F17</f>
@@ -2916,20 +2925,20 @@
         <v>3</v>
       </c>
       <c r="AH34" s="5" t="str">
-        <f t="shared" ref="AH34:AH35" si="27">IF(AND(Y34=0,Y35=0),IF(AND(Y34=0,Y35=0,Y36=0),"X","P"),Y34)</f>
+        <f t="shared" ref="AH34:AH35" si="26">IF(AND(Y34=0,Y35=0),IF(AND(Y34=0,Y35=0,Y36=0),"X","P"),Y34)</f>
         <v>X</v>
       </c>
-      <c r="AI34" s="5">
-        <f t="shared" si="26"/>
+      <c r="AI34" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>X</v>
+      </c>
+      <c r="AJ34" s="5">
+        <f>IF(AND(AA34=0,AA35=0),IF(AND(AA34=0,AA35=0,AA36=0),"X","P"),AA34)</f>
         <v>1</v>
       </c>
-      <c r="AJ34" s="5" t="str">
-        <f>IF(AND(AA34=0,AA35=0),IF(AND(AA34=0,AA35=0,AA36=0),"X","P"),AA34)</f>
-        <v>X</v>
-      </c>
-      <c r="AK34" s="5" t="str">
+      <c r="AK34" s="5">
         <f>IF(AND(AB34=0,AB35=0),"P",AB34)</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="5">
         <f>AC34</f>
@@ -2938,8 +2947,8 @@
       <c r="AM34" s="9"/>
       <c r="AN34" s="9"/>
       <c r="AO34" t="str">
-        <f t="shared" ref="AO34:AO35" si="28">CONCATENATE(AH34,AI34,AJ34,AK34,AL34,AM34,AN34)</f>
-        <v>X1XX1</v>
+        <f t="shared" ref="AO34:AO35" si="27">CONCATENATE(AH34,AI34,AJ34,AK34,AL34,AM34,AN34)</f>
+        <v>XX111</v>
       </c>
     </row>
     <row r="35" spans="16:41">
@@ -2947,19 +2956,19 @@
         <v>72</v>
       </c>
       <c r="Y35" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z35" s="5">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="AA35" s="5">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="AB35" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AC35" s="9" t="s">
@@ -2970,16 +2979,16 @@
       </c>
       <c r="AE35" s="9"/>
       <c r="AH35" s="5" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>X</v>
       </c>
-      <c r="AI35" s="5">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="5">
+      <c r="AI35" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>X</v>
+      </c>
+      <c r="AJ35" s="5" t="str">
         <f>IF(AND(AA35=0,AA36=0),"P",AA35)</f>
-        <v>1</v>
+        <v>P</v>
       </c>
       <c r="AK35" s="5">
         <f>AB35</f>
@@ -2989,39 +2998,39 @@
       <c r="AM35" s="9"/>
       <c r="AN35" s="9"/>
       <c r="AO35" t="str">
-        <f t="shared" si="28"/>
-        <v>X111</v>
+        <f t="shared" si="27"/>
+        <v>XXP1</v>
       </c>
     </row>
     <row r="36" spans="16:41">
       <c r="Y36" s="9">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="9" t="str">
-        <f t="shared" si="21"/>
-        <v>X</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9">
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="AA36" s="9">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="AB36" s="9"/>
     </row>
     <row r="37" spans="16:41">
       <c r="Y37" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z37" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA37" s="9"/>
     </row>
     <row r="38" spans="16:41">
       <c r="Y38" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>X</v>
       </c>
       <c r="Z38" s="9"/>
@@ -3066,36 +3075,36 @@
         <v>1</v>
       </c>
       <c r="AH41" s="5" t="str">
-        <f t="shared" ref="AH41:AN44" si="29">IF(AND(D12=0,D13=0),IF(AND(D12=0,D13=0,D14=0),"X","P"),D12)</f>
+        <f t="shared" ref="AH41:AN44" si="28">IF(AND(D12=0,D13=0),IF(AND(D12=0,D13=0,D14=0),"X","P"),D12)</f>
         <v>X</v>
       </c>
-      <c r="AI41" s="5" t="str">
-        <f t="shared" si="29"/>
+      <c r="AI41" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK41" s="5" t="str">
+        <f t="shared" si="28"/>
         <v>X</v>
       </c>
-      <c r="AJ41" s="5" t="str">
-        <f t="shared" si="29"/>
+      <c r="AL41" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>P</v>
+      </c>
+      <c r="AM41" s="5" t="str">
+        <f t="shared" si="28"/>
         <v>X</v>
       </c>
-      <c r="AK41" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>P</v>
-      </c>
-      <c r="AL41" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>P</v>
-      </c>
-      <c r="AM41" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>P</v>
-      </c>
       <c r="AN41" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>X</v>
       </c>
       <c r="AO41" t="str">
         <f>CONCATENATE(AH41,AI41,AJ41,AK41,AL41,AM41,AN41)</f>
-        <v>XXXPPPX</v>
+        <v>X00XPXX</v>
       </c>
     </row>
     <row r="42" spans="16:41">
@@ -3103,36 +3112,36 @@
         <v>2</v>
       </c>
       <c r="AH42" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>X</v>
       </c>
       <c r="AI42" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>X</v>
       </c>
       <c r="AJ42" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>X</v>
       </c>
-      <c r="AK42" s="5">
-        <f t="shared" si="29"/>
-        <v>0</v>
+      <c r="AK42" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>X</v>
       </c>
       <c r="AL42" s="5">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AM42" s="5">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>X</v>
       </c>
       <c r="AN42" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>X</v>
       </c>
       <c r="AO42" t="str">
-        <f t="shared" ref="AO42:AO46" si="30">CONCATENATE(AH42,AI42,AJ42,AK42,AL42,AM42,AN42)</f>
-        <v>XXX000X</v>
+        <f t="shared" ref="AO42:AO46" si="29">CONCATENATE(AH42,AI42,AJ42,AK42,AL42,AM42,AN42)</f>
+        <v>XXXX0XX</v>
       </c>
     </row>
     <row r="43" spans="16:41">
@@ -3140,73 +3149,73 @@
         <v>3</v>
       </c>
       <c r="AH43" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>X</v>
+      </c>
+      <c r="AI43" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>P</v>
+      </c>
+      <c r="AL43" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>X</v>
+      </c>
+      <c r="AM43" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>X</v>
+      </c>
+      <c r="AN43" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>X</v>
+      </c>
+      <c r="AO43" t="str">
         <f t="shared" si="29"/>
-        <v>P</v>
-      </c>
-      <c r="AI43" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="AJ43" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>P</v>
-      </c>
-      <c r="AK43" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="AL43" s="5">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AM43" s="5">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AN43" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="AO43" t="str">
-        <f t="shared" si="30"/>
-        <v>PXPX11X</v>
+        <v>X00PXXX</v>
       </c>
     </row>
     <row r="44" spans="16:41">
       <c r="AG44" s="5">
         <v>4</v>
       </c>
-      <c r="AH44" s="5">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AI44" s="5" t="str">
-        <f t="shared" si="29"/>
+      <c r="AH44" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>P</v>
+      </c>
+      <c r="AI44" s="5">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="5">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AK44" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="5">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AM44" s="5" t="str">
+        <f t="shared" si="28"/>
         <v>X</v>
       </c>
-      <c r="AJ44" s="5">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AK44" s="5">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AL44" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>X</v>
-      </c>
-      <c r="AM44" s="5">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
       <c r="AN44" s="5" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>P</v>
       </c>
       <c r="AO44" t="str">
         <f>CONCATENATE(AH44,AI44,AJ44,AK44,AL44,AM44,AN44)</f>
-        <v>0X01X1P</v>
+        <v>P1101XP</v>
       </c>
     </row>
     <row r="45" spans="16:41">
@@ -3214,36 +3223,36 @@
         <v>5</v>
       </c>
       <c r="AH45" s="5">
-        <f t="shared" ref="AH45:AN45" si="31">IF(AND(D16=0,D17=0),"P",D16)</f>
+        <f t="shared" ref="AH45:AN45" si="30">IF(AND(D16=0,D17=0),"P",D16)</f>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="AJ45" s="5">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="5">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="AI45" s="5" t="str">
-        <f t="shared" si="31"/>
+      <c r="AL45" s="5" t="str">
+        <f t="shared" si="30"/>
         <v>P</v>
       </c>
-      <c r="AJ45" s="5">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AK45" s="5" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="AL45" s="5">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
       <c r="AM45" s="5" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
+        <f t="shared" si="30"/>
+        <v>P</v>
       </c>
       <c r="AN45" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AO45" t="str">
-        <f t="shared" si="30"/>
-        <v>1P1X1X0</v>
+        <f t="shared" si="29"/>
+        <v>0P01PP0</v>
       </c>
     </row>
     <row r="46" spans="16:41">
@@ -3251,36 +3260,36 @@
         <v>6</v>
       </c>
       <c r="AH46" s="5" t="str">
-        <f t="shared" ref="AH46:AN46" si="32">D17</f>
+        <f t="shared" ref="AH46:AN46" si="31">D17</f>
         <v>X</v>
       </c>
       <c r="AI46" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AK46" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AL46" s="5">
-        <f t="shared" si="32"/>
-        <v>1</v>
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="AM46" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AN46" s="5" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>X</v>
       </c>
       <c r="AO46" t="str">
-        <f t="shared" si="30"/>
-        <v>X01110X</v>
+        <f t="shared" si="29"/>
+        <v>X01100X</v>
       </c>
     </row>
   </sheetData>
@@ -3298,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3319,51 +3328,51 @@
     <row r="1" spans="1:33">
       <c r="D1" t="str">
         <f>Sheet1!AO46</f>
-        <v>X01110X</v>
+        <v>X01100X</v>
       </c>
       <c r="E1" t="str">
         <f>Sheet1!AO45</f>
-        <v>1P1X1X0</v>
+        <v>0P01PP0</v>
       </c>
       <c r="F1" t="str">
         <f>Sheet1!AO44</f>
-        <v>0X01X1P</v>
+        <v>P1101XP</v>
       </c>
       <c r="G1" t="str">
         <f>Sheet1!AO43</f>
-        <v>PXPX11X</v>
+        <v>X00PXXX</v>
       </c>
       <c r="H1" t="str">
         <f>Sheet1!AO42</f>
-        <v>XXX000X</v>
+        <v>XXXX0XX</v>
       </c>
       <c r="I1" t="str">
         <f>Sheet1!AO41</f>
-        <v>XXXPPPX</v>
+        <v>X00XPXX</v>
       </c>
       <c r="K1" t="str">
         <f>CONCATENATE(Sheet1!D12,Sheet1!D13,Sheet1!D14,Sheet1!D15,Sheet1!D16,Sheet1!D17)</f>
-        <v>00001X</v>
+        <v>00000X</v>
       </c>
       <c r="L1" t="str">
         <f>CONCATENATE(Sheet1!E12,Sheet1!E13,Sheet1!E14,Sheet1!E15,Sheet1!E16,Sheet1!E17)</f>
-        <v>000000</v>
+        <v>0X0100</v>
       </c>
       <c r="M1" t="str">
         <f>CONCATENATE(Sheet1!F12,Sheet1!F13,Sheet1!F14,Sheet1!F15,Sheet1!F16,Sheet1!F17)</f>
-        <v>000011</v>
+        <v>0X0101</v>
       </c>
       <c r="N1" t="str">
         <f>CONCATENATE(Sheet1!G12,Sheet1!G13,Sheet1!G14,Sheet1!G15,Sheet1!G16,Sheet1!G17)</f>
-        <v>00X1X1</v>
+        <v>000011</v>
       </c>
       <c r="O1" t="str">
         <f>CONCATENATE(Sheet1!H12,Sheet1!H13,Sheet1!H14,Sheet1!H15,Sheet1!H16,Sheet1!H17)</f>
-        <v>001X11</v>
+        <v>00X100</v>
       </c>
       <c r="P1" t="str">
         <f>CONCATENATE(Sheet1!I12,Sheet1!I13,Sheet1!I14,Sheet1!I15,Sheet1!I16,Sheet1!I17)</f>
-        <v>0011X0</v>
+        <v>000000</v>
       </c>
       <c r="Q1" t="str">
         <f>CONCATENATE(Sheet1!J12,Sheet1!J13,Sheet1!J14,Sheet1!J15,Sheet1!J16,Sheet1!J17)</f>
@@ -3371,51 +3380,51 @@
       </c>
       <c r="T1" t="str">
         <f>Sheet1!AO16</f>
-        <v>PX11</v>
+        <v>X101</v>
       </c>
       <c r="U1" t="str">
         <f>Sheet1!AO15</f>
-        <v>XX0X1</v>
+        <v>X0110</v>
       </c>
       <c r="V1" t="str">
         <f>Sheet1!AO14</f>
-        <v>XXP110</v>
+        <v>XX00P0</v>
       </c>
       <c r="W1" t="str">
         <f>Sheet1!AO13</f>
-        <v>XXXXXX</v>
+        <v>0XP1PX</v>
       </c>
       <c r="X1" t="str">
         <f>Sheet1!AO12</f>
-        <v>X0110</v>
+        <v>0XXX0</v>
       </c>
       <c r="Y1" t="str">
         <f>Sheet1!AO11</f>
-        <v>P01P</v>
+        <v>X0XP</v>
       </c>
       <c r="AB1" t="str">
         <f>Sheet1!AO35</f>
-        <v>X111</v>
+        <v>XXP1</v>
       </c>
       <c r="AC1" t="str">
         <f>Sheet1!AO34</f>
-        <v>X1XX1</v>
+        <v>XX111</v>
       </c>
       <c r="AD1" t="str">
         <f>Sheet1!AO33</f>
-        <v>X01110</v>
+        <v>XXX000</v>
       </c>
       <c r="AE1" t="str">
         <f>Sheet1!AO32</f>
-        <v>P0X0PX</v>
+        <v>X0P1PX</v>
       </c>
       <c r="AF1" t="str">
         <f>Sheet1!AO31</f>
-        <v>P0PX1</v>
+        <v>PX010</v>
       </c>
       <c r="AG1" t="str">
         <f>Sheet1!AO30</f>
-        <v>PXX0</v>
+        <v>XX0P</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -3535,7 +3544,7 @@
   IF(ISNUMBER(SEARCH($B3,E$1,1)),
  $C3,
  0))</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:I3" si="0">IF(
@@ -3567,8 +3576,8 @@
         <v>0001a</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="E3:Q3" si="1">IF(ISNUMBER(SEARCH($B3,K$1,1)),$C3,0)</f>
-        <v>1</v>
+        <f t="shared" ref="K3:Q3" si="1">IF(ISNUMBER(SEARCH($B3,K$1,1)),$C3,0)</f>
+        <v>0</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
@@ -3576,11 +3585,11 @@
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
@@ -3595,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <f>IF(
+        <f t="shared" ref="T3:Y3" si="2">IF(
  IF(
   ISNUMBER(SEARCH($B3,T$1,1)),$C3,0)=0,
   IF(
@@ -3608,72 +3617,27 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <f>IF(
- IF(
-  ISNUMBER(SEARCH($B3,U$1,1)),$C3,0)=0,
-  IF(
-   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(U$1,"P",0),1)),(LEN(U$1)-LEN(SUBSTITUTE(U$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
-   $C3/(LEN(U$1)-LEN(SUBSTITUTE(U$1,"P",""))+1),
-   0),
-  IF(ISNUMBER(SEARCH($B3,U$1,1)),
- $C3,
- 0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>IF(
- IF(
-  ISNUMBER(SEARCH($B3,V$1,1)),$C3,0)=0,
-  IF(
-   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(V$1,"P",0),1)),(LEN(V$1)-LEN(SUBSTITUTE(V$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
-   $C3/(LEN(V$1)-LEN(SUBSTITUTE(V$1,"P",""))+1),
-   0),
-  IF(ISNUMBER(SEARCH($B3,V$1,1)),
- $C3,
- 0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>IF(
- IF(
-  ISNUMBER(SEARCH($B3,W$1,1)),$C3,0)=0,
-  IF(
-   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(W$1,"P",0),1)),(LEN(W$1)-LEN(SUBSTITUTE(W$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
-   $C3/(LEN(W$1)-LEN(SUBSTITUTE(W$1,"P",""))+1),
-   0),
-  IF(ISNUMBER(SEARCH($B3,W$1,1)),
- $C3,
- 0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>IF(
- IF(
-  ISNUMBER(SEARCH($B3,X$1,1)),$C3,0)=0,
-  IF(
-   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(X$1,"P",0),1)),(LEN(X$1)-LEN(SUBSTITUTE(X$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
-   $C3/(LEN(X$1)-LEN(SUBSTITUTE(X$1,"P",""))+1),
-   0),
-  IF(ISNUMBER(SEARCH($B3,X$1,1)),
- $C3,
- 0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>IF(
- IF(
-  ISNUMBER(SEARCH($B3,Y$1,1)),$C3,0)=0,
-  IF(
-   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(Y$1,"P",0),1)),(LEN(Y$1)-LEN(SUBSTITUTE(Y$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
-   $C3/(LEN(Y$1)-LEN(SUBSTITUTE(Y$1,"P",""))+1),
-   0),
-  IF(ISNUMBER(SEARCH($B3,Y$1,1)),
- $C3,
- 0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>IF(
+        <f t="shared" ref="AB3:AG3" si="3">IF(
  IF(
   ISNUMBER(SEARCH($B3,AB$1,1)),$C3,0)=0,
   IF(
@@ -3686,68 +3650,23 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>IF(
- IF(
-  ISNUMBER(SEARCH($B3,AC$1,1)),$C3,0)=0,
-  IF(
-   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AC$1,"P",0),1)),(LEN(AC$1)-LEN(SUBSTITUTE(AC$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
-   $C3/(LEN(AC$1)-LEN(SUBSTITUTE(AC$1,"P",""))+1),
-   0),
-  IF(ISNUMBER(SEARCH($B3,AC$1,1)),
- $C3,
- 0))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f>IF(
- IF(
-  ISNUMBER(SEARCH($B3,AD$1,1)),$C3,0)=0,
-  IF(
-   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AD$1,"P",0),1)),(LEN(AD$1)-LEN(SUBSTITUTE(AD$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
-   $C3/(LEN(AD$1)-LEN(SUBSTITUTE(AD$1,"P",""))+1),
-   0),
-  IF(ISNUMBER(SEARCH($B3,AD$1,1)),
- $C3,
- 0))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f>IF(
- IF(
-  ISNUMBER(SEARCH($B3,AE$1,1)),$C3,0)=0,
-  IF(
-   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AE$1,"P",0),1)),(LEN(AE$1)-LEN(SUBSTITUTE(AE$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
-   $C3/(LEN(AE$1)-LEN(SUBSTITUTE(AE$1,"P",""))+1),
-   0),
-  IF(ISNUMBER(SEARCH($B3,AE$1,1)),
- $C3,
- 0))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF3">
-        <f>IF(
- IF(
-  ISNUMBER(SEARCH($B3,AF$1,1)),$C3,0)=0,
-  IF(
-   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AF$1,"P",0),1)),(LEN(AF$1)-LEN(SUBSTITUTE(AF$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
-   $C3/(LEN(AF$1)-LEN(SUBSTITUTE(AF$1,"P",""))+1),
-   0),
-  IF(ISNUMBER(SEARCH($B3,AF$1,1)),
- $C3,
- 0))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG3">
-        <f>IF(
- IF(
-  ISNUMBER(SEARCH($B3,AG$1,1)),$C3,0)=0,
-  IF(
-   AND(ISNUMBER(SEARCH($B3,SUBSTITUTE(AG$1,"P",0),1)),(LEN(AG$1)-LEN(SUBSTITUTE(AG$1,"P","")))&lt;=(LEN($B3)-LEN(SUBSTITUTE($B3,0,"")))),
-   $C3/(LEN(AG$1)-LEN(SUBSTITUTE(AG$1,"P",""))+1),
-   0),
-  IF(ISNUMBER(SEARCH($B3,AG$1,1)),
- $C3,
- 0))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3764,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:I17" si="2">IF(
+        <f t="shared" ref="E4:I17" si="4">IF(
  IF(
   ISNUMBER(SEARCH($B4,E$1,1)),$C4,0)=0,
   IF(
@@ -3774,58 +3693,58 @@
   IF(ISNUMBER(SEARCH($B4,E$1,1)),
  $C4,
  0))</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J38" si="3">B4&amp;"a"</f>
+        <f t="shared" ref="J4:J38" si="5">B4&amp;"a"</f>
         <v>1000a</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="E4:Q17" si="4">IF(ISNUMBER(SEARCH($B4,K$1,1)),$C4,0)</f>
+        <f t="shared" ref="K4:Q17" si="6">IF(ISNUMBER(SEARCH($B4,K$1,1)),$C4,0)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:Y17" si="5">IF(
+        <f t="shared" ref="T4:Y17" si="7">IF(
  IF(
   ISNUMBER(SEARCH($B4,T$1,1)),$C4,0)=0,
   IF(
@@ -3838,27 +3757,27 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AG17" si="6">IF(
+        <f t="shared" ref="AB4:AG17" si="8">IF(
  IF(
   ISNUMBER(SEARCH($B4,AB$1,1)),$C4,0)=0,
   IF(
@@ -3871,23 +3790,23 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3900,107 +3819,107 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D4:D17" si="7">IF(ISNUMBER(SEARCH($B5,D$1,1)),$C5,0)</f>
+        <f t="shared" ref="D5:D17" si="9">IF(ISNUMBER(SEARCH($B5,D$1,1)),$C5,0)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0010a</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AB5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AF5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4013,107 +3932,107 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0100a</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4128,107 +4047,107 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0101a</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4241,107 +4160,107 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1010a</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4354,107 +4273,107 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1001a</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4467,107 +4386,107 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0011a</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="O10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4580,107 +4499,107 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1100a</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4693,107 +4612,107 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4.333333333333333</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0110a</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="V12">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4808,107 +4727,107 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0111a</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4921,107 +4840,107 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1011a</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5034,107 +4953,107 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1101a</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5147,107 +5066,107 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1110a</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5262,103 +5181,103 @@
         <v>500</v>
       </c>
       <c r="D17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1111a</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG17">
@@ -5377,7 +5296,7 @@
     </row>
     <row r="18" spans="1:33">
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
     </row>
@@ -5392,7 +5311,7 @@
         <v>24</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Permutationsa</v>
       </c>
     </row>
@@ -5411,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:I27" si="8">IF(
+        <f t="shared" ref="E20:I27" si="10">IF(
  IF(
   ISNUMBER(SEARCH($B20,E$1,1)),$C20,0)=0,
   IF(
@@ -5421,58 +5340,58 @@
   IF(ISNUMBER(SEARCH($B20,E$1,1)),
  $C20,
  0))</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>00010a</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="E20:Q20" si="9">IF(ISNUMBER(SEARCH($B20,K$1,1)),$C20,0)</f>
+        <f t="shared" ref="K20:Q20" si="11">IF(ISNUMBER(SEARCH($B20,K$1,1)),$C20,0)</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" ref="T20:Y27" si="10">IF(
+        <f t="shared" ref="T20:Y27" si="12">IF(
  IF(
   ISNUMBER(SEARCH($B20,T$1,1)),$C20,0)=0,
   IF(
@@ -5485,27 +5404,27 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB20">
-        <f t="shared" ref="AB20:AG27" si="11">IF(
+        <f t="shared" ref="AB20:AG27" si="13">IF(
  IF(
   ISNUMBER(SEARCH($B20,AB$1,1)),$C20,0)=0,
   IF(
@@ -5518,23 +5437,23 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5547,107 +5466,107 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:Q27" si="12">IF(ISNUMBER(SEARCH($B21,D$1,1)),$C21,0)</f>
+        <f t="shared" ref="D21:Q27" si="14">IF(ISNUMBER(SEARCH($B21,D$1,1)),$C21,0)</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.25</v>
       </c>
       <c r="F21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>01000a</v>
       </c>
       <c r="K21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="U21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="V21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="W21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="X21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P21">
+      <c r="Y21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="AB21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5660,107 +5579,107 @@
         <v>2</v>
       </c>
       <c r="D22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="5"/>
+        <v>00100a</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="3"/>
-        <v>00100a</v>
-      </c>
-      <c r="K22">
+      <c r="U22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="V22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="W22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N22">
+      <c r="X22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="Y22">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="AB22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5775,107 +5694,107 @@
         <v>2</v>
       </c>
       <c r="D23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="5"/>
+        <v>01010a</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="3"/>
-        <v>01010a</v>
-      </c>
-      <c r="K23">
+      <c r="U23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="V23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="W23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N23">
+      <c r="X23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="Y23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="AB23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5888,107 +5807,107 @@
         <v>3</v>
       </c>
       <c r="D24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="5"/>
+        <v>00110a</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="3"/>
-        <v>00110a</v>
-      </c>
-      <c r="K24">
+      <c r="U24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="V24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="W24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N24">
+      <c r="X24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="Y24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="AB24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6001,107 +5920,107 @@
         <v>3</v>
       </c>
       <c r="D25">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="5"/>
+        <v>01100a</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v>01100a</v>
-      </c>
-      <c r="K25">
+      <c r="U25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="V25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="W25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N25">
+      <c r="X25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="Y25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="AB25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6116,107 +6035,107 @@
         <v>400</v>
       </c>
       <c r="D26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="5"/>
+        <v>01110a</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="12"/>
-        <v>400</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v>01110a</v>
-      </c>
-      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L26">
+      <c r="V26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="W26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N26">
+      <c r="X26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O26">
+      <c r="Y26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="AB26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="11"/>
-        <v>400</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6229,113 +6148,113 @@
         <v>400</v>
       </c>
       <c r="D27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="5"/>
+        <v>01110a</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="12"/>
-        <v>400</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v>01110a</v>
-      </c>
-      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L27">
+      <c r="V27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="W27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N27">
+      <c r="X27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O27">
+      <c r="Y27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="AB27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="11"/>
-        <v>400</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:33">
       <c r="J28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
     </row>
@@ -6350,7 +6269,7 @@
         <v>24</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Permutationsa</v>
       </c>
     </row>
@@ -6369,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:I38" si="13">IF(
+        <f t="shared" ref="E30:I38" si="15">IF(
  IF(
   ISNUMBER(SEARCH($B30,E$1,1)),$C30,0)=0,
   IF(
@@ -6382,55 +6301,55 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>000010a</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="E30:Q30" si="14">IF(ISNUMBER(SEARCH($B30,K$1,1)),$C30,0)</f>
+        <f t="shared" ref="K30:Q30" si="16">IF(ISNUMBER(SEARCH($B30,K$1,1)),$C30,0)</f>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" ref="T30:Y38" si="15">IF(
+        <f t="shared" ref="T30:Y38" si="17">IF(
  IF(
   ISNUMBER(SEARCH($B30,T$1,1)),$C30,0)=0,
   IF(
@@ -6443,27 +6362,27 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB30">
-        <f t="shared" ref="AB30:AG38" si="16">IF(
+        <f t="shared" ref="AB30:AG38" si="18">IF(
  IF(
   ISNUMBER(SEARCH($B30,AB$1,1)),$C30,0)=0,
   IF(
@@ -6476,23 +6395,23 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6505,107 +6424,107 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:Q38" si="17">IF(ISNUMBER(SEARCH($B31,D$1,1)),$C31,0)</f>
+        <f t="shared" ref="D31:Q38" si="19">IF(ISNUMBER(SEARCH($B31,D$1,1)),$C31,0)</f>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>010000a</v>
       </c>
       <c r="K31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L31">
+      <c r="U31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M31">
+      <c r="V31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N31">
+      <c r="W31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O31">
+      <c r="X31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P31">
+      <c r="Y31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AB31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6618,107 +6537,107 @@
         <v>2</v>
       </c>
       <c r="D32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="5"/>
+        <v>001000a</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="3"/>
-        <v>001000a</v>
-      </c>
-      <c r="K32">
+      <c r="U32">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L32">
+      <c r="V32">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="W32">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N32">
+      <c r="X32">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O32">
+      <c r="Y32">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AB32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6731,107 +6650,107 @@
         <v>2</v>
       </c>
       <c r="D33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="5"/>
+        <v>000100a</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="3"/>
-        <v>000100a</v>
-      </c>
-      <c r="K33">
+      <c r="U33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L33">
+      <c r="V33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M33">
+      <c r="W33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N33">
+      <c r="X33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O33">
+      <c r="Y33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AB33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6846,107 +6765,107 @@
         <v>3</v>
       </c>
       <c r="D34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="5"/>
+        <v>000110a</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="3"/>
-        <v>000110a</v>
-      </c>
-      <c r="K34">
+      <c r="U34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L34">
+      <c r="V34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M34">
+      <c r="W34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N34">
+      <c r="X34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O34">
+      <c r="Y34">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AB34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6959,107 +6878,107 @@
         <v>4</v>
       </c>
       <c r="D35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="5"/>
+        <v>011000a</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="3"/>
-        <v>011000a</v>
-      </c>
-      <c r="K35">
+      <c r="U35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L35">
+      <c r="V35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M35">
+      <c r="W35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N35">
+      <c r="X35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O35">
+      <c r="Y35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AB35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7072,107 +6991,107 @@
         <v>4</v>
       </c>
       <c r="D36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="5"/>
+        <v>001100a</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="3"/>
-        <v>001100a</v>
-      </c>
-      <c r="K36">
+      <c r="U36">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L36">
+      <c r="V36">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M36">
+      <c r="W36">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N36">
+      <c r="X36">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O36">
+      <c r="Y36">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AB36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7187,107 +7106,107 @@
         <v>1</v>
       </c>
       <c r="D37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="5"/>
+        <v>010110a</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="3"/>
-        <v>010110a</v>
-      </c>
-      <c r="K37">
+      <c r="U37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L37">
+      <c r="V37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M37">
+      <c r="W37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N37">
+      <c r="X37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O37">
+      <c r="Y37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AB37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7300,107 +7219,107 @@
         <v>1</v>
       </c>
       <c r="D38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="5"/>
+        <v>011010a</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="3"/>
-        <v>011010a</v>
-      </c>
-      <c r="K38">
+      <c r="U38">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L38">
+      <c r="V38">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M38">
+      <c r="W38">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N38">
+      <c r="X38">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O38">
+      <c r="Y38">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AB38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
